--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P20_trail14 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P20_trail14 Features.xlsx
@@ -7402,7 +7402,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7413,29 +7413,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7456,115 +7454,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -7581,72 +7569,66 @@
         <v>5.037221243917752e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.542539831550433</v>
+        <v>3.402141603064206e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>13.48287409572946</v>
+        <v>1.611833634605076e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3.402141603064206e-07</v>
+        <v>-0.1126871187020211</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.611833634605076e-06</v>
+        <v>0.3088667725261073</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.1126871187020211</v>
+        <v>0.1078229226541998</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3088667725261073</v>
+        <v>1.936189997497182</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1078229226541998</v>
+        <v>3.685729064473486</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.965592082897315</v>
+        <v>5.73648379651075</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>3.685729064473486</v>
+        <v>4.076962229979166e-18</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.73648379651075</v>
+        <v>28743145467.05157</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.076962229979166e-18</v>
+        <v>4.18241091137123e-09</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>28743145467.05157</v>
+        <v>3368.257408635426</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>4.18241091137123e-09</v>
+        <v>5.769274319244048e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>3368.257408635426</v>
+        <v>11.39950015944355</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>5.769274319244048e-05</v>
+        <v>1.105984190168122</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>11.39950015944355</v>
+        <v>0.007497091432162334</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.105984190168122</v>
+        <v>6.456143863154004</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.007497091432162334</v>
+        <v>0.9621232071743688</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>6.456143863154004</v>
+        <v>0.7781282541681228</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9621232071743688</v>
+        <v>455</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.7781282541681228</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>455</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>10.73284862334256</v>
       </c>
     </row>
@@ -7661,72 +7643,66 @@
         <v>3.746251689109223e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3.312449249486397</v>
+        <v>2.514469126111546e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>12.05328494239144</v>
+        <v>1.606943434461107e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.514469126111546e-07</v>
+        <v>-0.1119838915155841</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.606943434461107e-06</v>
+        <v>0.2943084905806909</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.1119838915155841</v>
+        <v>0.09889500202252104</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2943084905806909</v>
+        <v>1.938662708162189</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.09889500202252104</v>
+        <v>3.455346743382846</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.966029601038423</v>
+        <v>5.92887522044157</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>3.455346743382846</v>
+        <v>3.816661200429587e-18</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.92887522044157</v>
+        <v>30816045081.87933</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.816661200429587e-18</v>
+        <v>3.910781459643888e-09</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>30816045081.87933</v>
+        <v>3624.410764068879</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.910781459643888e-09</v>
+        <v>4.161794653354893e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>3624.410764068879</v>
+        <v>9.755647571814192</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>4.161794653354893e-05</v>
+        <v>1.294136607951022</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.755647571814192</v>
+        <v>0.003960890656417949</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.294136607951022</v>
+        <v>7.03960975255464</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.003960890656417949</v>
+        <v>0.9642889390494718</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>7.03960975255464</v>
+        <v>0.7017834983976646</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9642889390494718</v>
+        <v>481</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.7017834983976646</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>481</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>12.14720476650075</v>
       </c>
     </row>
@@ -7741,72 +7717,66 @@
         <v>2.851231292400408e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>2.984064551979431</v>
+        <v>1.880409157895866e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>10.15336387225784</v>
+        <v>1.603311522939404e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.880409157895866e-07</v>
+        <v>-0.110027014163328</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.603311522939404e-06</v>
+        <v>0.2718488651288565</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.110027014163328</v>
+        <v>0.08578064351737388</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2718488651288565</v>
+        <v>1.931518181742589</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.08578064351737388</v>
+        <v>3.691981470624296</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.959786073403757</v>
+        <v>6.584306333891614</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>3.691981470624296</v>
+        <v>2.79717318784222e-18</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>6.584306333891614</v>
+        <v>41518563707.92236</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.79717318784222e-18</v>
+        <v>2.893981001785244e-09</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>41518563707.92236</v>
+        <v>4821.742336902209</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.893981001785244e-09</v>
+        <v>1.389268258420599e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>4821.742336902209</v>
+        <v>8.31640024156574</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>1.389268258420599e-05</v>
+        <v>1.482051225939226</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.31640024156574</v>
+        <v>0.0009608528395281962</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.482051225939226</v>
+        <v>8.12683844606009</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.0009608528395281962</v>
+        <v>0.9646014090489077</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>8.12683844606009</v>
+        <v>0.7551571953143492</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9646014090489077</v>
+        <v>501</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.7551571953143492</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>501</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>16.00018175934598</v>
       </c>
     </row>
@@ -7821,72 +7791,66 @@
         <v>2.238729923120712e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>2.558191855055998</v>
+        <v>1.438075764723887e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>7.968672182644575</v>
+        <v>1.600568949719134e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.438075764723887e-07</v>
+        <v>-0.1071561901876352</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.600568949719134e-06</v>
+        <v>0.24539358082942</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.1071561901876352</v>
+        <v>0.07152318593860213</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.24539358082942</v>
+        <v>1.92917872867658</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.07152318593860213</v>
+        <v>3.640826891745495</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.957062265959239</v>
+        <v>7.587515614803188</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>3.640826891745495</v>
+        <v>2.106396950298826e-18</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>7.587515614803188</v>
+        <v>56416797022.11525</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.106396950298826e-18</v>
+        <v>2.129465941259608e-09</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>56416797022.11525</v>
+        <v>6704.356036247874</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.129465941259608e-09</v>
+        <v>4.977011546756484e-06</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>6704.356036247874</v>
+        <v>7.80095244604897</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>4.977011546756484e-06</v>
+        <v>1.725511684126176</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.80095244604897</v>
+        <v>0.0003028753362453186</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.725511684126176</v>
+        <v>8.688604613107191</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.0003028753362453186</v>
+        <v>0.9642978182206146</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>8.688604613107191</v>
+        <v>0.7434329336777963</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9642978182206146</v>
+        <v>540</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.7434329336777963</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>540</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>18.76646933839739</v>
       </c>
     </row>
@@ -7901,72 +7865,66 @@
         <v>1.820982668589939e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>2.034799652402152</v>
+        <v>1.130603310983361e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>5.585495712767468</v>
+        <v>1.598443083925017e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.130603310983361e-07</v>
+        <v>-0.1035632844978824</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.598443083925017e-06</v>
+        <v>0.2177223422082383</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.1035632844978824</v>
+        <v>0.05799127957912865</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2177223422082383</v>
+        <v>1.923794168788495</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.05799127957912865</v>
+        <v>4.15083465997105</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.951788410377665</v>
+        <v>9.140527033173909</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>4.15083465997105</v>
+        <v>1.854581898449878e-18</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>9.140527033173909</v>
+        <v>65075213432.48756</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.854581898449878e-18</v>
+        <v>1.838658266113064e-09</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>65075213432.48756</v>
+        <v>7853.752643586121</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.838658266113064e-09</v>
+        <v>5.639756796674359e-06</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>7853.752643586121</v>
+        <v>6.891253010491568</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>5.639756796674359e-06</v>
+        <v>2.048064212061049</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>6.891253010491568</v>
+        <v>0.0002678284862557519</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>2.048064212061049</v>
+        <v>8.680524047625264</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.0002678284862557519</v>
+        <v>0.9629132211905448</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>8.680524047625264</v>
+        <v>0.7199541351864502</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9629132211905448</v>
+        <v>567</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.7199541351864502</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>567</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>18.53662735215158</v>
       </c>
     </row>
@@ -7981,72 +7939,66 @@
         <v>1.5409527777697e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>1.457292554930958</v>
+        <v>9.089662145959708e-08</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>3.259044138101947</v>
+        <v>1.596753068874241e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>9.089662145959708e-08</v>
+        <v>-0.09838600611072672</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.596753068874241e-06</v>
+        <v>0.1850163559807424</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.09838600611072672</v>
+        <v>0.0438055687708322</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1850163559807424</v>
+        <v>1.922656398022484</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.0438055687708322</v>
+        <v>3.517105395586431</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.94771053224956</v>
+        <v>8.883910120522257</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>3.517105395586431</v>
+        <v>1.963270672960575e-18</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>8.883910120522257</v>
+        <v>63440704092.5947</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.963270672960575e-18</v>
+        <v>1.893971259202263e-09</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>63440704092.5947</v>
+        <v>7901.620506577564</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.893971259202263e-09</v>
+        <v>6.9395010683174e-06</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>7901.620506577564</v>
+        <v>8.095076198170901</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>6.9395010683174e-06</v>
+        <v>1.61223661381933</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.095076198170901</v>
+        <v>0.0004547472999378881</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.61223661381933</v>
+        <v>8.526321121476908</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.0004547472999378881</v>
+        <v>0.9631439012608687</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>8.526321121476908</v>
+        <v>0.6982978622785491</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9631439012608687</v>
+        <v>574</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.6982978622785491</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>574</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>18.0001871144085</v>
       </c>
     </row>
@@ -8061,72 +8013,66 @@
         <v>1.361702519804434e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.9279035474784155</v>
+        <v>7.460560412576522e-08</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>1.461844725464245</v>
+        <v>1.595380832785878e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>7.460560412576522e-08</v>
+        <v>-0.09137606010777974</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.595380832785878e-06</v>
+        <v>0.1463044303327907</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.09137606010777974</v>
+        <v>0.02968006909889262</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1463044303327907</v>
+        <v>1.92220969177437</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.02968006909889262</v>
+        <v>3.681739547991556</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.950890214105921</v>
+        <v>8.861846735169388</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>3.681739547991556</v>
+        <v>1.973058772717705e-18</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>8.861846735169388</v>
+        <v>63549041066.95786</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.973058772717705e-18</v>
+        <v>1.886196467018462e-09</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>63549041066.95786</v>
+        <v>7968.159616786951</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.886196467018462e-09</v>
+        <v>8.690788745917648e-06</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>7968.159616786951</v>
+        <v>8.985034002578059</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>8.690788745917648e-06</v>
+        <v>1.229420316272721</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.985034002578059</v>
+        <v>0.00070161464119618</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.229420316272721</v>
+        <v>8.321116831085554</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.00070161464119618</v>
+        <v>0.961573820853849</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>8.321116831085554</v>
+        <v>0.7046069400530198</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.961573820853849</v>
+        <v>588</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.7046069400530198</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>588</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>17.17264910615562</v>
       </c>
     </row>
@@ -8141,72 +8087,66 @@
         <v>1.253721945320927e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.530749378561417</v>
+        <v>6.291526623753828e-08</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.4079515433098564</v>
+        <v>1.594240803181616e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>6.291526623753828e-08</v>
+        <v>-0.08368466056309783</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.594240803181616e-06</v>
+        <v>0.1070795941225212</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.08368466056309783</v>
+        <v>0.01842571145799829</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1070795941225212</v>
+        <v>1.921130326282349</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01842571145799829</v>
+        <v>3.74619863645205</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.949758332010835</v>
+        <v>9.008255839122496</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>3.74619863645205</v>
+        <v>1.909444623046165e-18</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>9.008255839122496</v>
+        <v>65076240156.52754</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.909444623046165e-18</v>
+        <v>1.843091979677935e-09</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>65076240156.52754</v>
+        <v>8086.339557536709</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.843091979677935e-09</v>
+        <v>1.104598517821912e-05</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>8086.339557536709</v>
+        <v>9.148951236556602</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>1.104598517821912e-05</v>
+        <v>1.245057729065506</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.148951236556602</v>
+        <v>0.0009245855075872245</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.245057729065506</v>
+        <v>8.216278933779648</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.0009245855075872245</v>
+        <v>0.9613521581487874</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>8.216278933779648</v>
+        <v>0.677244186172243</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9613521581487874</v>
+        <v>623</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.677244186172243</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>623</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>16.34586067347984</v>
       </c>
     </row>
@@ -8221,72 +8161,66 @@
         <v>1.191104267111186e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.2657123950559263</v>
+        <v>5.534429649389272e-08</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.110672900727482</v>
+        <v>1.593260710404639e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>5.534429649389272e-08</v>
+        <v>-0.07747158332912761</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.593260710404639e-06</v>
+        <v>0.07827157765622789</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.07747158332912761</v>
+        <v>0.01210905349873552</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.07827157765622789</v>
+        <v>1.924100742203597</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01210905349873552</v>
+        <v>3.58590024756646</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.951069499726113</v>
+        <v>8.737563715009077</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>3.58590024756646</v>
+        <v>2.029587502780018e-18</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>8.737563715009077</v>
+        <v>61893934216.84181</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2.029587502780018e-18</v>
+        <v>1.936068037448022e-09</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>61893934216.84181</v>
+        <v>7775.063739736706</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.936068037448022e-09</v>
+        <v>9.428838146202072e-06</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>7775.063739736706</v>
+        <v>8.417360742116275</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>9.428838146202072e-06</v>
+        <v>1.353135553638053</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.417360742116275</v>
+        <v>0.0006680516807463567</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.353135553638053</v>
+        <v>8.375426055113142</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.0006680516807463567</v>
+        <v>0.9607664297107315</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>8.375426055113142</v>
+        <v>0.7140919788860314</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9607664297107315</v>
+        <v>600</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.7140919788860314</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>16.77424719367287</v>
       </c>
     </row>
@@ -8301,72 +8235,66 @@
         <v>1.153772073987645e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.08115856129874767</v>
+        <v>5.106875441888762e-08</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.3882374575226515</v>
+        <v>1.59237752127303e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>5.106875441888762e-08</v>
+        <v>-0.07378781605345655</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.59237752127303e-06</v>
+        <v>0.06478774851348651</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.07378781605345655</v>
+        <v>0.00963499923034304</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.06478774851348651</v>
+        <v>1.915671489911565</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.00963499923034304</v>
+        <v>3.662853808992345</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.945370189916194</v>
+        <v>8.759709797376743</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>3.662853808992345</v>
+        <v>2.01933816905143e-18</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>8.759709797376743</v>
+        <v>61118729987.7242</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2.01933816905143e-18</v>
+        <v>1.961881495296357e-09</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>61118729987.7242</v>
+        <v>7543.236024781577</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.961881495296357e-09</v>
+        <v>6.973733415382973e-06</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>7543.236024781577</v>
+        <v>6.888603767542061</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>6.973733415382973e-06</v>
+        <v>2.009011185961805</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>6.888603767542061</v>
+        <v>0.0003309236084518343</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>2.009011185961805</v>
+        <v>8.598306043747957</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.0003309236084518343</v>
+        <v>0.9590972299974118</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>8.598306043747957</v>
+        <v>0.7343480903150306</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9590972299974118</v>
+        <v>584</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.7343480903150306</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>584</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>17.61783819664367</v>
       </c>
     </row>
@@ -8381,72 +8309,66 @@
         <v>1.129373239907072e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.06514462017931887</v>
+        <v>4.858173515195387e-08</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.5867107713044466</v>
+        <v>1.591548298206973e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>4.858173515195387e-08</v>
+        <v>-0.07170570129135612</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.591548298206973e-06</v>
+        <v>0.05994633413920695</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.07170570129135612</v>
+        <v>0.008731407440766071</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.05994633413920695</v>
+        <v>1.91879776594519</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.008731407440766071</v>
+        <v>3.698587506975736</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.945440166728151</v>
+        <v>8.826833726750316</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>3.698587506975736</v>
+        <v>1.988742706333132e-18</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>8.826833726750316</v>
+        <v>60856230822.44409</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.988742706333132e-18</v>
+        <v>1.966913098105751e-09</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>60856230822.44409</v>
+        <v>7365.270488537223</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.966913098105751e-09</v>
+        <v>6.894843529444058e-06</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>7365.270488537223</v>
+        <v>7.585605653102159</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>6.894843529444058e-06</v>
+        <v>2.293093361064272</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>7.585605653102159</v>
+        <v>0.0003967390399556674</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>2.293093361064272</v>
+        <v>8.591127072733045</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.0003967390399556674</v>
+        <v>0.9594640104031206</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>8.591127072733045</v>
+        <v>0.7274828777599899</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9594640104031206</v>
+        <v>572</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.7274828777599899</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>572</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>17.57402989540646</v>
       </c>
     </row>
@@ -8461,72 +8383,66 @@
         <v>1.11293214327445e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.1855446020034907</v>
+        <v>4.640478794146928e-08</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.7528110035390707</v>
+        <v>1.590756645379943e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>4.640478794146928e-08</v>
+        <v>-0.06950403436639316</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.590756645379943e-06</v>
+        <v>0.05612682930834468</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.06950403436639316</v>
+        <v>0.007977360278327321</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.05612682930834468</v>
+        <v>1.915983318009717</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.007977360278327321</v>
+        <v>3.603479720561986</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.945784231435578</v>
+        <v>8.679090993108874</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>3.603479720561986</v>
+        <v>2.057027075814462e-18</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>8.679090993108874</v>
+        <v>58907654711.19781</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.057027075814462e-18</v>
+        <v>2.033030401581114e-09</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>58907654711.19781</v>
+        <v>7138.113894913928</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>2.033030401581114e-09</v>
+        <v>7.584639202856884e-06</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>7138.113894913928</v>
+        <v>7.719221906866106</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>7.584639202856884e-06</v>
+        <v>1.822956184383121</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>7.719221906866106</v>
+        <v>0.0004519412456397014</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.822956184383121</v>
+        <v>8.418414022911607</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.0004519412456397014</v>
+        <v>0.9601501602977376</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>8.418414022911607</v>
+        <v>0.7715476696510242</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9601501602977376</v>
+        <v>534</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.7715476696510242</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>534</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>16.40963832232428</v>
       </c>
     </row>
@@ -8541,72 +8457,66 @@
         <v>1.103379861785535e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.2755755596020414</v>
+        <v>4.416570567166869e-08</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.8866032022785024</v>
+        <v>1.590001826396744e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>4.416570567166869e-08</v>
+        <v>-0.06672365728615624</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.590001826396744e-06</v>
+        <v>0.05134601038041485</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.06672365728615624</v>
+        <v>0.007084756100513201</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.05134601038041485</v>
+        <v>1.911100452186616</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.007084756100513201</v>
+        <v>3.519600249709407</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.940143984188252</v>
+        <v>8.720021605882108</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>3.519600249709407</v>
+        <v>2.037761578184133e-18</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>8.720021605882108</v>
+        <v>58945429381.08005</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.037761578184133e-18</v>
+        <v>2.030521295172713e-09</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>58945429381.08005</v>
+        <v>7080.332296573179</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>2.030521295172713e-09</v>
+        <v>9.574980633381024e-06</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>7080.332296573179</v>
+        <v>7.565239787183872</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>9.574980633381024e-06</v>
+        <v>1.268589570775144</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>7.565239787183872</v>
+        <v>0.0005480034594280653</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.268589570775144</v>
+        <v>8.194843179003286</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.0005480034594280653</v>
+        <v>0.9607126873285627</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>8.194843179003286</v>
+        <v>0.7775377478484171</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9607126873285627</v>
+        <v>526</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.7775377478484171</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>526</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>14.84348879440949</v>
       </c>
     </row>
@@ -8621,72 +8531,66 @@
         <v>1.100140696945034e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.3328183185339351</v>
+        <v>4.201178414907288e-08</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.9879086426643298</v>
+        <v>1.589283873002946e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>4.201178414907288e-08</v>
+        <v>-0.06365487742868421</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.589283873002946e-06</v>
+        <v>0.04633716665272072</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.06365487742868421</v>
+        <v>0.006196181762486809</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.04633716665272072</v>
+        <v>1.909121590737788</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.006196181762486809</v>
+        <v>3.416353253298378</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.937279178330428</v>
+        <v>8.537016266866603</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>3.416353253298378</v>
+        <v>2.126063704960241e-18</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>8.537016266866603</v>
+        <v>56845244272.06683</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.126063704960241e-18</v>
+        <v>2.105944749937328e-09</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>56845244272.06683</v>
+        <v>6870.123554090972</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>2.105944749937328e-09</v>
+        <v>1.135651168465748e-05</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>6870.123554090972</v>
+        <v>8.157683033679964</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>1.135651168465748e-05</v>
+        <v>1.311396899310633</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>8.157683033679964</v>
+        <v>0.0007557507828644541</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.311396899310633</v>
+        <v>8.124738290395321</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.0007557507828644541</v>
+        <v>0.96234568690242</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>8.124738290395321</v>
+        <v>0.7584412688843168</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.96234568690242</v>
+        <v>520</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.7584412688843168</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>520</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>14.29591442062132</v>
       </c>
     </row>
@@ -8701,72 +8605,66 @@
         <v>1.101614248155654e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.3607487470653573</v>
+        <v>3.996909633122838e-08</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.066842007206499</v>
+        <v>1.588600858847551e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>3.996909633122838e-08</v>
+        <v>-0.0604750780836899</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.588600858847551e-06</v>
+        <v>0.04254851242879187</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.0604750780836899</v>
+        <v>0.005465857213286431</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.04254851242879187</v>
+        <v>1.908664959915486</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.005465857213286431</v>
+        <v>3.277218516527821</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.936879193328893</v>
+        <v>9.800199390429002</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>3.277218516527821</v>
+        <v>2.726495627081033e-18</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>9.800199390429002</v>
+        <v>44694658337.48209</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.726495627081033e-18</v>
+        <v>2.672108533105126e-09</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>44694658337.48209</v>
+        <v>5446.481701967437</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>2.672108533105126e-09</v>
+        <v>1.013380690736588e-05</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>5446.481701967437</v>
+        <v>7.82089890887863</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>1.013380690736588e-05</v>
+        <v>1.378765400292216</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>7.82089890887863</v>
+        <v>0.0006198490922417063</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.378765400292216</v>
+        <v>8.256616424213012</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.0006198490922417063</v>
+        <v>0.9622157000393285</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>8.256616424213012</v>
+        <v>0.7849228857918255</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9622157000393285</v>
+        <v>496</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.7849228857918255</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>496</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>14.97638919039611</v>
       </c>
     </row>
@@ -8781,72 +8679,66 @@
         <v>1.105228513271572e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.3653612773460642</v>
+        <v>3.825453108953862e-08</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.136736063531065</v>
+        <v>1.587950567293896e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>3.825453108953862e-08</v>
+        <v>-0.0574431111224739</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.587950567293896e-06</v>
+        <v>0.04157623355662049</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.0574431111224739</v>
+        <v>0.00502757069241758</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.04157623355662049</v>
+        <v>1.906088921380416</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.00502757069241758</v>
+        <v>3.458496847717216</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.935579698483097</v>
+        <v>8.270017451640356</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>3.458496847717216</v>
+        <v>3.828792027221719e-18</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>8.270017451640356</v>
+        <v>32367739182.38092</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>3.828792027221719e-18</v>
+        <v>3.704144214010677e-09</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>32367739182.38092</v>
+        <v>4011.312609859521</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>3.704144214010677e-09</v>
+        <v>1.054482469679577e-05</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>4011.312609859521</v>
+        <v>9.439218728854996</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>1.054482469679577e-05</v>
+        <v>1.971340244564325</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.439218728854996</v>
+        <v>0.0009395317561628199</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.971340244564325</v>
+        <v>8.336144005206593</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.0009395317561628199</v>
+        <v>0.9624663475510824</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>8.336144005206593</v>
+        <v>0.786328164604439</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9624663475510824</v>
+        <v>442</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.786328164604439</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>442</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>15.59123306076781</v>
       </c>
     </row>
@@ -8861,72 +8753,66 @@
         <v>1.108065060578393e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.3529956438930337</v>
+        <v>3.702154596657973e-08</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.207127840541796</v>
+        <v>1.587331078691087e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>3.702154596657973e-08</v>
+        <v>-0.05446139076893781</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>1.587331078691087e-06</v>
+        <v>0.04346386425449322</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.05446139076893781</v>
+        <v>0.004854476707573632</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.04346386425449322</v>
+        <v>1.902637289893645</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.004854476707573632</v>
+        <v>3.451306167593461</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.932327036331831</v>
+        <v>7.183087496728499</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>3.451306167593461</v>
+        <v>5.075190119428315e-18</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>7.183087496728499</v>
+        <v>24308866369.85897</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>5.075190119428315e-18</v>
+        <v>4.925877341097526e-09</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>24308866369.85897</v>
+        <v>2999.036340312071</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>4.925877341097526e-09</v>
+        <v>1.705275542041347e-05</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>2999.036340312071</v>
+        <v>10.73389126337755</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>1.705275542041347e-05</v>
+        <v>1.593338305514413</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>10.73389126337755</v>
+        <v>0.001964757458881112</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.593338305514413</v>
+        <v>7.863157438901024</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.001964757458881112</v>
+        <v>0.9617135727700243</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>7.863157438901024</v>
+        <v>0.7927123591604103</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9617135727700243</v>
+        <v>408</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>0.7927123591604103</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>408</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>13.81425360860094</v>
       </c>
     </row>
@@ -8941,72 +8827,66 @@
         <v>1.108026430031528e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.3276147910957332</v>
+        <v>3.605776257090301e-08</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.27920084006838</v>
+        <v>1.586745034776365e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>3.605776257090301e-08</v>
+        <v>-0.05122582367465335</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>1.586745034776365e-06</v>
+        <v>0.04795153875764043</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.05122582367465335</v>
+        <v>0.004922260205389046</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.04795153875764043</v>
+        <v>1.903250445244519</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.004922260205389046</v>
+        <v>3.610768088862941</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.932611185296178</v>
+        <v>6.457642406504132</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>3.610768088862941</v>
+        <v>6.27952284268247e-18</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>6.457642406504132</v>
+        <v>19580473318.08784</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>6.27952284268247e-18</v>
+        <v>6.108377685541003e-09</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>19580473318.08784</v>
+        <v>2407.537254364087</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>6.108377685541003e-09</v>
+        <v>3.324555148745977e-05</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>2407.537254364087</v>
+        <v>10.67724611081161</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>3.324555148745977e-05</v>
+        <v>1.084991251833016</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>10.67724611081161</v>
+        <v>0.00379011203861016</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.084991251833016</v>
+        <v>6.952709458361632</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.00379011203861016</v>
+        <v>0.9601116900152261</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>6.952709458361632</v>
+        <v>0.783383841405352</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9601116900152261</v>
+        <v>386</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>0.783383841405352</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>386</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>10.48399120342065</v>
       </c>
     </row>
@@ -9021,72 +8901,66 @@
         <v>1.103781358973115e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.2926637621646439</v>
+        <v>3.518082844439839e-08</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.348339607795556</v>
+        <v>1.586198320086154e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>3.518082844439839e-08</v>
+        <v>-0.04743592215080947</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1.586198320086154e-06</v>
+        <v>0.05510252948420091</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.04743592215080947</v>
+        <v>0.005283932491251419</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.05510252948420091</v>
+        <v>1.905114736849579</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.005283932491251419</v>
+        <v>3.166201591780995</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.934836455556978</v>
+        <v>5.936393643583672</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>3.166201591780995</v>
+        <v>7.430691758408463e-18</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>5.936393643583672</v>
+        <v>16086688773.3244</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>7.430691758408463e-18</v>
+        <v>7.428402350388106e-09</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>16086688773.3244</v>
+        <v>1922.925973092327</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>7.428402350388106e-09</v>
+        <v>5.371865680562922e-05</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>1922.925973092327</v>
+        <v>11.56635375577552</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>5.371865680562922e-05</v>
+        <v>1.056119132563851</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>11.56635375577552</v>
+        <v>0.007186510872757863</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.056119132563851</v>
+        <v>6.34217425548836</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.007186510872757863</v>
+        <v>0.960756040538127</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>6.34217425548836</v>
+        <v>0.8058064061757901</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.960756040538127</v>
+        <v>345</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>0.8058064061757901</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>345</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>8.755106233998806</v>
       </c>
     </row>
@@ -9101,72 +8975,66 @@
         <v>1.094979375851239e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.2509743423331154</v>
+        <v>3.411995060635888e-08</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.404759220228464</v>
+        <v>1.585702706548973e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>3.411995060635888e-08</v>
+        <v>-0.04241689300348525</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1.585702706548973e-06</v>
+        <v>0.06545352835179515</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.04241689300348525</v>
+        <v>0.006078311386355497</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.06545352835179515</v>
+        <v>1.905480161728792</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.006078311386355497</v>
+        <v>3.208268977096606</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.936663902258131</v>
+        <v>4.979905502933915</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>3.208268977096606</v>
+        <v>9.111358278852244e-18</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.979905502933915</v>
+        <v>12727708036.73396</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>9.111358278852244e-18</v>
+        <v>9.408505738847864e-09</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>12727708036.73396</v>
+        <v>1475.99040129458</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>9.408505738847864e-09</v>
+        <v>5.276534388686287e-05</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>1475.99040129458</v>
+        <v>12.33520656728511</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>5.276534388686287e-05</v>
+        <v>1.015336126267886</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>12.33520656728511</v>
+        <v>0.008028633370507739</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.015336126267886</v>
+        <v>6.473431309967388</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.008028633370507739</v>
+        <v>0.9609789462837046</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>6.473431309967388</v>
+        <v>0.7971133562320019</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9609789462837046</v>
+        <v>308</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>0.7971133562320019</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>308</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>9.453608092364437</v>
       </c>
     </row>
@@ -9181,72 +9049,66 @@
         <v>1.082113412793329e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.2070018180085536</v>
+        <v>3.288212081225068e-08</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.436172903591439</v>
+        <v>1.585274585901127e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>3.288212081225068e-08</v>
+        <v>-0.03594881834987024</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1.585274585901127e-06</v>
+        <v>0.07916021488096027</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.03594881834987024</v>
+        <v>0.007550471976873048</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.07916021488096027</v>
+        <v>1.906672512852033</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.007550471976873048</v>
+        <v>3.142856637303101</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.942737021253393</v>
+        <v>4.706621405525985</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>3.142856637303101</v>
+        <v>1.002244362406845e-17</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.706621405525985</v>
+        <v>11660691919.72529</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1.002244362406845e-17</v>
+        <v>1.024297417744764e-08</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>11660691919.72529</v>
+        <v>1362.769058995235</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.024297417744764e-08</v>
+        <v>4.214385610322132e-05</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>1362.769058995235</v>
+        <v>13.96782993130572</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>4.214385610322132e-05</v>
+        <v>1.024614801214291</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>13.96782993130572</v>
+        <v>0.008222277830584691</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.024614801214291</v>
+        <v>6.994643578493546</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.008222277830584691</v>
+        <v>0.9606274421470996</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>6.994643578493546</v>
+        <v>0.7999461274439995</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9606274421470996</v>
+        <v>262</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>0.7999461274439995</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>262</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>11.36488363421196</v>
       </c>
     </row>
@@ -9261,72 +9123,66 @@
         <v>1.066441063800911e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.1690972954368364</v>
+        <v>3.170193254534e-08</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.436127051111439</v>
+        <v>1.584928156411634e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>3.170193254534e-08</v>
+        <v>-0.02830116419783688</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>1.584928156411634e-06</v>
+        <v>0.09585953429646717</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.02830116419783688</v>
+        <v>0.009978194902127247</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.09585953429646717</v>
+        <v>1.912444652014044</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.009978194902127247</v>
+        <v>3.402417444180625</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.943372581494087</v>
+        <v>4.533694777222915</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>3.402417444180625</v>
+        <v>1.080158769555473e-17</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.533694777222915</v>
+        <v>10799855440.97683</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1.080158769555473e-17</v>
+        <v>1.108568116348255e-08</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>10799855440.97683</v>
+        <v>1259.863461348763</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>1.108568116348255e-08</v>
+        <v>4.767058053194347e-05</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>1259.863461348763</v>
+        <v>13.83669026400347</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>4.767058053194347e-05</v>
+        <v>1.086944072886193</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>13.83669026400347</v>
+        <v>0.009126723204173267</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.086944072886193</v>
+        <v>6.838410680741642</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.009126723204173267</v>
+        <v>0.9628522940112961</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>6.838410680741642</v>
+        <v>0.7999699830409944</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9628522940112961</v>
+        <v>214</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>0.7999699830409944</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>214</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>11.08046000348219</v>
       </c>
     </row>
@@ -9341,72 +9197,66 @@
         <v>1.049918188723046e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.1477873582034013</v>
+        <v>3.153641675803795e-08</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.412965729919299</v>
+        <v>1.584672748049691e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>3.153641675803795e-08</v>
+        <v>-0.01975644122307636</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>1.584672748049691e-06</v>
+        <v>0.1159372155095041</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.01975644122307636</v>
+        <v>0.01381462054281139</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1159372155095041</v>
+        <v>1.912477925231433</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.01381462054281139</v>
+        <v>2.904876759041208</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.942040643910291</v>
+        <v>4.73073378547732</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>2.904876759041208</v>
+        <v>1.211808841911808e-17</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.73073378547732</v>
+        <v>9631439226.021111</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1.211808841911808e-17</v>
+        <v>1.244593441215452e-08</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>9631439226.021111</v>
+        <v>1124.129886285101</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>1.244593441215452e-08</v>
+        <v>6.500962022606503e-05</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>1124.129886285101</v>
+        <v>12.19459163064617</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>6.500962022606503e-05</v>
+        <v>1.027412991993548</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>12.19459163064617</v>
+        <v>0.009667454832688032</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.027412991993548</v>
+        <v>6.053528189798303</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.009667454832688032</v>
+        <v>0.9633901811515296</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>6.053528189798303</v>
+        <v>0.8142515569571044</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9633901811515296</v>
+        <v>161</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>0.8142515569571044</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>161</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>8.848528263825747</v>
       </c>
     </row>
@@ -9421,72 +9271,66 @@
         <v>1.035660090210423e-08</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.1492889920301158</v>
+        <v>3.153641675803795e-08</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.392304059223539</v>
+        <v>1.584514651772463e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>3.153641675803795e-08</v>
+        <v>-0.01031993684440373</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>1.584514651772463e-06</v>
+        <v>0.1395524446877956</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.01031993684440373</v>
+        <v>0.01955713487171135</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.1395524446877956</v>
+        <v>1.913218390531933</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.01955713487171135</v>
+        <v>2.769440712071802</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.944088672042061</v>
+        <v>4.789148208825786</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>2.769440712071802</v>
+        <v>1.185711878985146e-17</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.789148208825786</v>
+        <v>9943721129.9877</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>1.185711878985146e-17</v>
+        <v>1.20410464745144e-08</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>9943721129.9877</v>
+        <v>1172.403329228517</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>1.20410464745144e-08</v>
+        <v>7.699217600551947e-05</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>1172.403329228517</v>
+        <v>12.32140446906345</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>7.699217600551947e-05</v>
+        <v>1.025070626474426</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>12.32140446906345</v>
+        <v>0.01168872180751643</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.025070626474426</v>
+        <v>5.725777914909435</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.01168872180751643</v>
+        <v>0.9631934541024827</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>5.725777914909435</v>
+        <v>0.8055178784189492</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9631934541024827</v>
+        <v>133</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>0.8055178784189492</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>133</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>8.128117040499404</v>
       </c>
     </row>
@@ -9501,72 +9345,66 @@
         <v>1.029323238512555e-08</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.1588837309445982</v>
+        <v>3.153641675803795e-08</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.392326122918807</v>
+        <v>1.58446091095495e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>3.153641675803795e-08</v>
+        <v>0.0001911344601399095</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1.58446091095495e-06</v>
+        <v>0.1641799711713881</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.0001911344601399095</v>
+        <v>0.02692391018484627</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1641799711713881</v>
+        <v>1.921555156611173</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.02692391018484627</v>
+        <v>2.913014331726007</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.94853083080946</v>
+        <v>4.722036625152003</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>2.913014331726007</v>
+        <v>1.095021439736065e-17</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>4.722036625152003</v>
+        <v>11004062170.60271</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>1.095021439736065e-17</v>
+        <v>1.090334467191323e-08</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>11004062170.60271</v>
+        <v>1325.954718831048</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>1.090334467191323e-08</v>
+        <v>6.526118444989867e-05</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>1325.954718831048</v>
+        <v>13.15324760800094</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>6.526118444989867e-05</v>
+        <v>1.00560275008919</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>13.15324760800094</v>
+        <v>0.01129070195053202</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.00560275008919</v>
+        <v>6.15447809640585</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.01129070195053202</v>
+        <v>0.9639648385822722</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>6.15447809640585</v>
+        <v>0.7923933976010639</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9639648385822722</v>
+        <v>107</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>0.7923933976010639</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>107</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>9.459926160454906</v>
       </c>
     </row>
@@ -9581,72 +9419,66 @@
         <v>1.039202452066796e-08</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.1241618996105391</v>
+        <v>3.826880395103603e-08</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.343337466649465</v>
+        <v>1.58452003722216e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>3.826880395103603e-08</v>
+        <v>0.01122977000486772</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>1.58452003722216e-06</v>
+        <v>0.1852626899734854</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.01122977000486772</v>
+        <v>0.03441922203605723</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1852626899734854</v>
+        <v>1.917097331879381</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.03441922203605723</v>
+        <v>2.797877295505707</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.939527969919837</v>
+        <v>6.886227002865533</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>2.797877295505707</v>
+        <v>1.579456238399147e-17</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>6.886227002865533</v>
+        <v>7655918172.955431</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>1.579456238399147e-17</v>
+        <v>1.566446203059109e-08</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>7655918172.955431</v>
+        <v>925.7679970828135</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>1.566446203059109e-08</v>
+        <v>8.848819459230502e-05</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>925.7679970828135</v>
+        <v>11.80184221042147</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>8.848819459230502e-05</v>
+        <v>1.432961580355059</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>11.80184221042147</v>
+        <v>0.01232494364277082</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.432961580355059</v>
+        <v>6.165736523942877</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.01232494364277082</v>
+        <v>0.9640259079005291</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>6.165736523942877</v>
+        <v>0.9783673017573984</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9640259079005291</v>
+        <v>77</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>0.9783673017573984</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>9.073180996894612</v>
       </c>
     </row>
@@ -9661,72 +9493,66 @@
         <v>1.071184171111434e-08</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.01076917496281435</v>
+        <v>4.43700981762071e-08</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.083477214577881</v>
+        <v>1.584687442425826e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>4.43700981762071e-08</v>
+        <v>0.0200230695753763</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>1.584687442425826e-06</v>
+        <v>0.1935131922609471</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.0200230695753763</v>
+        <v>0.03783296912924776</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1935131922609471</v>
+        <v>1.919306594022173</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.03783296912924776</v>
+        <v>2.476160342327606</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.936666710944141</v>
+        <v>5.055389598326431</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>2.476160342327606</v>
+        <v>4.834018153495858e-17</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>5.055389598326431</v>
+        <v>2586560393.164262</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>4.834018153495858e-17</v>
+        <v>4.638835409141138e-08</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>2586560393.164262</v>
+        <v>323.4100587486416</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>4.638835409141138e-08</v>
+        <v>0.0002433345318646988</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>323.4100587486416</v>
+        <v>10.22892271916926</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0002433345318646988</v>
+        <v>1.878434646436583</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>10.22892271916926</v>
+        <v>0.0254603013354202</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.878434646436583</v>
+        <v>3.974343655728571</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.0254603013354202</v>
+        <v>0.9628803406121502</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>3.974343655728571</v>
+        <v>1.208855096020465</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9628803406121502</v>
+        <v>65</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.208855096020465</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>3.316100647273224</v>
       </c>
     </row>
@@ -9741,72 +9567,66 @@
         <v>1.123011334672804e-08</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.2260336050032019</v>
+        <v>4.877069955845727e-08</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-0.6163292835010323</v>
+        <v>1.584940350903472e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>4.877069955845727e-08</v>
+        <v>0.02567699453038642</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>1.584940350903472e-06</v>
+        <v>0.190663998343549</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.02567699453038642</v>
+        <v>0.03700509778494335</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.190663998343549</v>
+        <v>1.92005867972043</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.03700509778494335</v>
+        <v>2.497126323617339</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.939332070885776</v>
+        <v>4.170698172285068</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>2.497126323617339</v>
+        <v>7.102316383249174e-17</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>4.170698172285068</v>
+        <v>1773679657.101237</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>7.102316383249174e-17</v>
+        <v>6.764543861550418e-08</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>1773679657.101237</v>
+        <v>223.4345783632578</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>6.764543861550418e-08</v>
+        <v>0.0001949000334905914</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>223.4345783632578</v>
+        <v>10.63979753928499</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001949000334905914</v>
+        <v>1.435634417107929</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>10.63979753928499</v>
+        <v>0.02206371513915458</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.435634417107929</v>
+        <v>3.319556229669045</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.02206371513915458</v>
+        <v>0.9620174272901405</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>3.319556229669045</v>
+        <v>1.183427844170679</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9620174272901405</v>
+        <v>19</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.183427844170679</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>1.373537136248035</v>
       </c>
     </row>
@@ -9821,72 +9641,66 @@
         <v>1.18866239560646e-08</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.4562995950005959</v>
+        <v>5.177332059685146e-08</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-0.1261304687972324</v>
+        <v>1.585257559598352e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>5.177332059685146e-08</v>
+        <v>0.02883593017080086</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1.585257559598352e-06</v>
+        <v>0.1824221768897374</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.02883593017080086</v>
+        <v>0.03410723878957187</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1824221768897374</v>
+        <v>1.922892796637424</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.03410723878957187</v>
+        <v>2.356910718895866</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.942049369663291</v>
+        <v>3.788600811876155</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>2.356910718895866</v>
+        <v>9.269113385092555e-17</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>3.788600811876155</v>
+        <v>1366802227.034209</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>9.269113385092555e-17</v>
+        <v>8.77729156801082e-08</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>1366802227.034209</v>
+        <v>173.1607867078723</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>8.77729156801082e-08</v>
+        <v>0.0001673829735333013</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>173.1607867078723</v>
+        <v>11.30103175214515</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001673829735333013</v>
+        <v>1.113791828654217</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>11.30103175214515</v>
+        <v>0.02137703503761782</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.113791828654217</v>
+        <v>3.025040846793854</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.02137703503761782</v>
+        <v>0.9613606475187103</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>3.025040846793854</v>
+        <v>1.191668371466141</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9613606475187103</v>
+        <v>3</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.191668371466141</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.8116319785080419</v>
       </c>
     </row>
@@ -9901,72 +9715,66 @@
         <v>1.260157509846679e-08</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.6434655426652767</v>
+        <v>5.287080502828966e-08</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>0.2053615348845397</v>
+        <v>1.585616159861756e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>5.287080502828966e-08</v>
+        <v>0.02929258821050825</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>1.585616159861756e-06</v>
+        <v>0.1721294670381347</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.02929258821050825</v>
+        <v>0.03048656745167921</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1721294670381347</v>
+        <v>1.924439491606223</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.03048656745167921</v>
+        <v>2.325267944829873</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.944824865563132</v>
+        <v>3.303349623934552</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>2.325267944829873</v>
+        <v>1.250092430722212e-16</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>3.303349623934552</v>
+        <v>1005573681.547049</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>1.250092430722212e-16</v>
+        <v>1.19415271906344e-07</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>1005573681.547049</v>
+        <v>126.4066500227586</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>1.19415271906344e-07</v>
+        <v>0.0001633119257550031</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>126.4066500227586</v>
+        <v>11.55244186580503</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001633119257550031</v>
+        <v>1.072455403416932</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>11.55244186580503</v>
+        <v>0.02179543210145617</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.072455403416932</v>
+        <v>2.871249152026814</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.02179543210145617</v>
+        <v>0.9615166518110925</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>2.871249152026814</v>
+        <v>1.228138570703507</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9615166518110925</v>
+        <v>3</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.228138570703507</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.6611917764751679</v>
       </c>
     </row>
@@ -9981,72 +9789,66 @@
         <v>1.328296879875651e-08</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.7581582158693543</v>
+        <v>5.287165957783291e-08</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>0.3056589130556806</v>
+        <v>1.585986869329878e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>5.287165957783291e-08</v>
+        <v>0.02775968420291811</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>1.585986869329878e-06</v>
+        <v>0.1633617057527323</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.02775968420291811</v>
+        <v>0.02745683152873533</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1633617057527323</v>
+        <v>1.92304073848175</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.02745683152873533</v>
+        <v>2.281947035912103</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.944564534916261</v>
+        <v>3.164300950070348</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>2.281947035912103</v>
+        <v>1.362371799366959e-16</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>3.164300950070348</v>
+        <v>901914337.3204188</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>1.362371799366959e-16</v>
+        <v>1.326776442850804e-07</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>901914337.3204188</v>
+        <v>110.8220620677638</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>1.326776442850804e-07</v>
+        <v>0.0001533592816524258</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>110.8220620677638</v>
+        <v>11.62237492551579</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001533592816524258</v>
+        <v>1.067914048206708</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>11.62237492551579</v>
+        <v>0.02071571025462164</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.067914048206708</v>
+        <v>2.959767328400859</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.02071571025462164</v>
+        <v>0.95938877179921</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.959767328400859</v>
+        <v>1.243348701548769</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.95938877179921</v>
+        <v>3</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.243348701548769</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.6862520019416561</v>
       </c>
     </row>
@@ -10061,72 +9863,66 @@
         <v>1.388284053508985e-08</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.8097680108804834</v>
+        <v>5.287165957783291e-08</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>0.2384743509699958</v>
+        <v>1.586350678425364e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>5.287165957783291e-08</v>
+        <v>0.02581327586461074</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>1.586350678425364e-06</v>
+        <v>0.1568411200290894</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0.02581327586461074</v>
+        <v>0.02526446551024614</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.1568411200290894</v>
+        <v>1.926314648171383</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.02526446551024614</v>
+        <v>2.301404644410452</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.94534847880521</v>
+        <v>3.192010891066949</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>2.301404644410452</v>
+        <v>1.338820888274588e-16</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>3.192010891066949</v>
+        <v>944758640.0135114</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>1.338820888274588e-16</v>
+        <v>1.267964151318323e-07</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>944758640.0135114</v>
+        <v>119.4989871318003</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>1.267964151318323e-07</v>
+        <v>0.0001685400483977071</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>119.4989871318003</v>
+        <v>10.96650907770648</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0001685400483977071</v>
+        <v>1.342869123332686</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>10.96650907770648</v>
+        <v>0.0202693545410855</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.342869123332686</v>
+        <v>3.180338727461978</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.0202693545410855</v>
+        <v>0.9593963297364434</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>3.180338727461978</v>
+        <v>1.253569947454174</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9593963297364434</v>
+        <v>20</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.253569947454174</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.6899095235916827</v>
       </c>
     </row>
@@ -10141,72 +9937,66 @@
         <v>1.440596250353533e-08</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.8217588949927305</v>
+        <v>5.287165957783291e-08</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>0.09374252542607575</v>
+        <v>1.586705746789881e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>5.287165957783291e-08</v>
+        <v>0.02447420525526395</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>1.586705746789881e-06</v>
+        <v>0.1514247867244863</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>0.02447420525526395</v>
+        <v>0.02352788051244483</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.1514247867244863</v>
+        <v>1.927302951368</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.02352788051244483</v>
+        <v>2.303526880738142</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.947027843010862</v>
+        <v>3.204494961373405</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>2.303526880738142</v>
+        <v>1.328409652039951e-16</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>3.204494961373405</v>
+        <v>959717693.9775907</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>1.328409652039951e-16</v>
+        <v>1.25073282546844e-07</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>959717693.9775907</v>
+        <v>122.3542406543476</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>1.25073282546844e-07</v>
+        <v>0.0002120226696222478</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>122.3542406543476</v>
+        <v>10.52931872221024</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0002120226696222478</v>
+        <v>1.578119381980066</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>10.52931872221024</v>
+        <v>0.0235062224866949</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.578119381980066</v>
+        <v>3.048375249046776</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.0235062224866949</v>
+        <v>0.9605783226458547</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>3.048375249046776</v>
+        <v>1.273782375278532</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9605783226458547</v>
+        <v>20</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.273782375278532</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.5947064060091506</v>
       </c>
     </row>
@@ -10221,72 +10011,66 @@
         <v>1.487405029452897e-08</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.8114088212343333</v>
+        <v>5.287165957783291e-08</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-0.07658429540353806</v>
+        <v>1.587057837393013e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>5.287165957783291e-08</v>
+        <v>0.0236227772243969</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>1.587057837393013e-06</v>
+        <v>0.1467074622898679</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>0.0236227772243969</v>
+        <v>0.0220807220775802</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.1467074622898679</v>
+        <v>1.923577361864956</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.0220807220775802</v>
+        <v>2.289118412453022</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.945397723264226</v>
+        <v>3.247363091969495</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>2.289118412453022</v>
+        <v>1.293568727514998e-16</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>3.247363091969495</v>
+        <v>1018536226.232206</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>1.293568727514998e-16</v>
+        <v>1.176017316620943e-07</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>1018536226.232206</v>
+        <v>134.1968952131323</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>1.176017316620943e-07</v>
+        <v>0.0001759015068098934</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>134.1968952131323</v>
+        <v>10.30230315379714</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001759015068098934</v>
+        <v>1.35706833579664</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>10.30230315379714</v>
+        <v>0.01866973743193482</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.35706833579664</v>
+        <v>3.037369887937874</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.01866973743193482</v>
+        <v>0.9622642519481336</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>3.037369887937874</v>
+        <v>1.27083687912159</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9622642519481336</v>
+        <v>43</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.27083687912159</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.5113009188952027</v>
       </c>
     </row>
@@ -10301,72 +10085,66 @@
         <v>1.529603081765057e-08</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.7872873938566224</v>
+        <v>5.287165957783291e-08</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-0.2508123723180833</v>
+        <v>1.587407685621704e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>5.287165957783291e-08</v>
+        <v>0.02269513882501619</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>1.587407685621704e-06</v>
+        <v>0.1428272182858503</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>0.02269513882501619</v>
+        <v>0.02091412227583626</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.1428272182858503</v>
+        <v>1.923441670292794</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.02091412227583626</v>
+        <v>2.27263902356593</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.942489069361227</v>
+        <v>3.343785569701991</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>2.27263902356593</v>
+        <v>1.220040844231926e-16</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>3.343785569701991</v>
+        <v>1076077114.061512</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>1.220040844231926e-16</v>
+        <v>1.11439836331691e-07</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>1076077114.061512</v>
+        <v>141.2736480846266</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>1.11439836331691e-07</v>
+        <v>0.0001612361790370381</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>141.2736480846266</v>
+        <v>10.9664355657634</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0001612361790370381</v>
+        <v>1.098410506752999</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>10.9664355657634</v>
+        <v>0.01939069968271198</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.098410506752999</v>
+        <v>2.831817092545401</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.01939069968271198</v>
+        <v>0.9642993006169767</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>2.831817092545401</v>
+        <v>1.270911197998158</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9642993006169767</v>
+        <v>43</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.270911197998158</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.4798483327743907</v>
       </c>
     </row>
@@ -10381,72 +10159,66 @@
         <v>1.566871074819699e-08</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.753493265036317</v>
+        <v>5.287165957783291e-08</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-0.4192400265766008</v>
+        <v>1.587750800631597e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>5.287165957783291e-08</v>
+        <v>0.02158475400004748</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>1.587750800631597e-06</v>
+        <v>0.1398054536630029</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0.02158475400004748</v>
+        <v>0.02001082414328553</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.1398054536630029</v>
+        <v>1.921091000488087</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.02001082414328553</v>
+        <v>2.262326042105422</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.940773872797094</v>
+        <v>3.457374605665735</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>2.262326042105422</v>
+        <v>1.1411909869961e-16</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>3.457374605665735</v>
+        <v>1139005482.679687</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>1.1411909869961e-16</v>
+        <v>1.053782339182224e-07</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>1139005482.679687</v>
+        <v>148.0505285430489</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>1.053782339182224e-07</v>
+        <v>0.0001608440125566455</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>148.0505285430489</v>
+        <v>11.21209925354153</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001608440125566455</v>
+        <v>1.076510951708961</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>11.21209925354153</v>
+        <v>0.02021988895311579</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.076510951708961</v>
+        <v>2.737900564748921</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.02021988895311579</v>
+        <v>0.9641456277641637</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>2.737900564748921</v>
+        <v>1.277175295145336</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9641456277641637</v>
+        <v>66</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.277175295145336</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.4865351859753428</v>
       </c>
     </row>
@@ -10461,72 +10233,66 @@
         <v>1.599278738450647e-08</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>0.7134428367312131</v>
+        <v>5.287165957783291e-08</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>-0.5756804894252481</v>
+        <v>1.588084218681777e-06</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>5.287165957783291e-08</v>
+        <v>0.02054487211434986</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>1.588084218681777e-06</v>
+        <v>0.1373554560248715</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>0.02054487211434986</v>
+        <v>0.019288139360965</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.1373554560248715</v>
+        <v>1.920328631649882</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0.019288139360965</v>
+        <v>2.260888642080772</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>1.941834122596158</v>
+        <v>3.564202684179101</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>2.260888642080772</v>
+        <v>1.073807474642633e-16</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>3.564202684179101</v>
+        <v>1243547864.267201</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>1.073807474642633e-16</v>
+        <v>9.675846051755832e-08</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>1243547864.267201</v>
+        <v>166.0548002850675</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>9.675846051755832e-08</v>
+        <v>0.0001551363706449375</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>166.0548002850675</v>
+        <v>10.59823035784333</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>0.0001551363706449375</v>
+        <v>1.173850261279458</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>10.59823035784333</v>
+        <v>0.01742530293123105</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>1.173850261279458</v>
+        <v>2.995141995498759</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>0.01742530293123105</v>
+        <v>0.9636377210289747</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>2.995141995498759</v>
+        <v>1.266669172402131</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0.9636377210289747</v>
+        <v>94</v>
       </c>
       <c r="X38" s="2" t="n">
-        <v>1.266669172402131</v>
-      </c>
-      <c r="Y38" s="2" t="n">
-        <v>94</v>
-      </c>
-      <c r="Z38" s="2" t="n">
         <v>0.5333629279906399</v>
       </c>
     </row>
@@ -10541,72 +10307,66 @@
         <v>1.627637415776207e-08</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0.6699601466517314</v>
+        <v>5.287165957783291e-08</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>-0.7175421354376357</v>
+        <v>1.588409222902532e-06</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>5.287165957783291e-08</v>
+        <v>0.01974978161806493</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>1.588409222902532e-06</v>
+        <v>0.1352047695344321</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>0.01974978161806493</v>
+        <v>0.01867010022941514</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0.1352047695344321</v>
+        <v>1.923776589788809</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0.01867010022941514</v>
+        <v>2.222921041511556</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>1.941853672521071</v>
+        <v>3.731053942286255</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>2.222921041511556</v>
+        <v>9.799144290906472e-17</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>3.731053942286255</v>
+        <v>1374793765.99404</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>9.799144290906472e-17</v>
+        <v>8.757524287930761e-08</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>1374793765.99404</v>
+        <v>185.2095007062605</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>8.757524287930761e-08</v>
+        <v>0.0001772125059199788</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>185.2095007062605</v>
+        <v>9.735017271009836</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0.0001772125059199788</v>
+        <v>1.627546632192678</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>9.735017271009836</v>
+        <v>0.01679452864954311</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>1.627546632192678</v>
+        <v>3.178227434843312</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>0.01679452864954311</v>
+        <v>0.963642128128011</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>3.178227434843312</v>
+        <v>1.251303913121899</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0.963642128128011</v>
+        <v>98</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>1.251303913121899</v>
-      </c>
-      <c r="Y39" s="2" t="n">
-        <v>98</v>
-      </c>
-      <c r="Z39" s="2" t="n">
         <v>0.6197506457674135</v>
       </c>
     </row>
@@ -10621,72 +10381,66 @@
         <v>1.652738579091118e-08</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>0.624964422058133</v>
+        <v>5.287165957783291e-08</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>-0.8446027720785296</v>
+        <v>1.588726979221642e-06</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>5.287165957783291e-08</v>
+        <v>0.01895486298990417</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>1.588726979221642e-06</v>
+        <v>0.1333821013905186</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>0.01895486298990417</v>
+        <v>0.01814989515891436</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0.1333821013905186</v>
+        <v>1.922062378181255</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0.01814989515891436</v>
+        <v>2.26029378318134</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>1.941087695481363</v>
+        <v>3.700648268846563</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>2.26029378318134</v>
+        <v>8.651512657667183e-17</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>3.700648268846563</v>
+        <v>1543305185.422251</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>8.651512657667183e-17</v>
+        <v>7.802508450637482e-08</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>1543305185.422251</v>
+        <v>206.0609407904742</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>7.802508450637482e-08</v>
+        <v>0.0001731302010929078</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>206.0609407904742</v>
+        <v>9.038434446978806</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>0.0001731302010929078</v>
+        <v>1.82926768253673</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>9.038434446978806</v>
+        <v>0.01414357698123911</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>1.82926768253673</v>
+        <v>3.301179895985566</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0.01414357698123911</v>
+        <v>0.9639804440314823</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>3.301179895985566</v>
+        <v>1.264877858839939</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0.9639804440314823</v>
+        <v>136</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>1.264877858839939</v>
-      </c>
-      <c r="Y40" s="2" t="n">
-        <v>136</v>
-      </c>
-      <c r="Z40" s="2" t="n">
         <v>0.7632877527118584</v>
       </c>
     </row>
@@ -10701,72 +10455,66 @@
         <v>1.675007219840726e-08</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>0.5800649109823656</v>
+        <v>5.287165957783291e-08</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>-0.9570077577362222</v>
+        <v>1.589034686374725e-06</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>5.287165957783291e-08</v>
+        <v>0.01798866024289743</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>1.589034686374725e-06</v>
+        <v>0.1318585410385311</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>0.01798866024289743</v>
+        <v>0.01771018456756072</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0.1318585410385311</v>
+        <v>1.924567501773312</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0.01771018456756072</v>
+        <v>2.270035478610277</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>1.943711646123726</v>
+        <v>3.797282037993517</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>2.270035478610277</v>
+        <v>7.825195863357645e-17</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>3.797282037993517</v>
+        <v>1692066907.885452</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>7.825195863357645e-17</v>
+        <v>7.121812888417297e-08</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>1692066907.885452</v>
+        <v>224.0424331695816</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>7.121812888417297e-08</v>
+        <v>0.0001411761185254926</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>224.0424331695816</v>
+        <v>9.50680182157455</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>0.0001411761185254926</v>
+        <v>1.153733865036285</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>9.50680182157455</v>
+        <v>0.01275939606901447</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>1.153733865036285</v>
+        <v>3.156117587116525</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>0.01275939606901447</v>
+        <v>0.9646328494662536</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>3.156117587116525</v>
+        <v>1.292039856881054</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0.9646328494662536</v>
+        <v>146</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>1.292039856881054</v>
-      </c>
-      <c r="Y41" s="2" t="n">
-        <v>146</v>
-      </c>
-      <c r="Z41" s="2" t="n">
         <v>0.9142562497736464</v>
       </c>
     </row>
@@ -10781,72 +10529,66 @@
         <v>1.694970871294853e-08</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0.5366471647257341</v>
+        <v>5.287165957783291e-08</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>-1.055760380769745</v>
+        <v>1.589329414624746e-06</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>5.287165957783291e-08</v>
+        <v>0.0170209482483425</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>1.589329414624746e-06</v>
+        <v>0.1304767501329925</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>0.0170209482483425</v>
+        <v>0.01731387673816484</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0.1304767501329925</v>
+        <v>1.932474669455965</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0.01731387673816484</v>
+        <v>2.565044316628401</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>1.95924405594524</v>
+        <v>3.447155302582038</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>2.565044316628401</v>
+        <v>7.90192331418721e-17</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>3.447155302582038</v>
+        <v>1645816574.046989</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>7.90192331418721e-17</v>
+        <v>7.323365479823584e-08</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>1645816574.046989</v>
+        <v>214.0403604831586</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>7.323365479823584e-08</v>
+        <v>0.0001599681859172407</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>214.0403604831586</v>
+        <v>10.5175538154069</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>0.0001599681859172407</v>
+        <v>1.123755396557332</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>10.5175538154069</v>
+        <v>0.01769551088154027</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>1.123755396557332</v>
+        <v>2.811339771882984</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>0.01769551088154027</v>
+        <v>0.9649285384901697</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>2.811339771882984</v>
+        <v>1.162413527882801</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0.9649285384901697</v>
+        <v>145</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>1.162413527882801</v>
-      </c>
-      <c r="Y42" s="2" t="n">
-        <v>145</v>
-      </c>
-      <c r="Z42" s="2" t="n">
         <v>0.9078725866060267</v>
       </c>
     </row>
@@ -10861,72 +10603,66 @@
         <v>1.713272195754686e-08</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>0.4949907713709353</v>
+        <v>5.287165957783291e-08</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>-1.143201582840925</v>
+        <v>1.589613284223773e-06</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>5.287165957783291e-08</v>
+        <v>0.01633608177914794</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>1.589613284223773e-06</v>
+        <v>0.1291694469299791</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>0.01633608177914794</v>
+        <v>0.01695163063370656</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0.1291694469299791</v>
+        <v>1.92911469369602</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0.01695163063370656</v>
+        <v>2.446962062338485</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>1.958069672258946</v>
+        <v>3.671790716147321</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>2.446962062338485</v>
+        <v>6.964639979667189e-17</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>3.671790716147321</v>
+        <v>1839515040.056493</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>6.964639979667189e-17</v>
+        <v>6.544432868761964e-08</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>1839515040.056493</v>
+        <v>235.6705729035527</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>6.544432868761964e-08</v>
+        <v>0.0001557398478087931</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>235.6705729035527</v>
+        <v>10.17913760190405</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>0.0001557398478087931</v>
+        <v>1.118363740418137</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>10.17913760190405</v>
+        <v>0.01613695977341479</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>1.118363740418137</v>
+        <v>2.939714492982894</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0.01613695977341479</v>
+        <v>0.9656077408476988</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>2.939714492982894</v>
+        <v>1.158403642111032</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0.9656077408476988</v>
+        <v>155</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>1.158403642111032</v>
-      </c>
-      <c r="Y43" s="2" t="n">
-        <v>155</v>
-      </c>
-      <c r="Z43" s="2" t="n">
         <v>1.049216469280507</v>
       </c>
     </row>
@@ -11303,7 +11039,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.362354315739602</v>
+        <v>1.392521806730209</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.467227587307661</v>
@@ -11392,7 +11128,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.375248367325931</v>
+        <v>1.403848797620671</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.276653769169832</v>
@@ -11481,7 +11217,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.375083643621308</v>
+        <v>1.401599904224654</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.312540648888241</v>
@@ -11570,7 +11306,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.409960295677868</v>
+        <v>1.438260732984496</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.105463275712959</v>
@@ -11659,7 +11395,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.412354073024661</v>
+        <v>1.438600950369886</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.312867578988685</v>
@@ -11748,7 +11484,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.406641767189481</v>
+        <v>1.431912232252272</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.632378481129842</v>
@@ -11837,7 +11573,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.430933741468071</v>
+        <v>1.457153312706242</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.329126614318459</v>
@@ -11926,7 +11662,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.412555298441394</v>
+        <v>1.434781483143993</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.586727264963199</v>
@@ -12015,7 +11751,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.414303644746875</v>
+        <v>1.440776336589267</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.672726030767266</v>
@@ -12104,7 +11840,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.411950953258483</v>
+        <v>1.429636588027837</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.252395914677222</v>
@@ -12193,7 +11929,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.394646257079937</v>
+        <v>1.422557632442425</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.441474949123851</v>
@@ -12282,7 +12018,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.423444242908949</v>
+        <v>1.449299891276409</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.407317485664812</v>
@@ -12371,7 +12107,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.424571514590498</v>
+        <v>1.45657642460072</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.539807970280789</v>
@@ -12460,7 +12196,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.42851140436111</v>
+        <v>1.458813780696294</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.403722815547519</v>
@@ -12549,7 +12285,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.431243729766223</v>
+        <v>1.461371566877424</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.370794444948737</v>
@@ -12638,7 +12374,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.451044111408623</v>
+        <v>1.481361936330697</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.281180288684371</v>
@@ -12727,7 +12463,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.47400261487713</v>
+        <v>1.504080413017499</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.469080508419562</v>
@@ -12816,7 +12552,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.44843236001891</v>
+        <v>1.477055846085698</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.390999283361416</v>
@@ -12905,7 +12641,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.416413749255481</v>
+        <v>1.443013574125937</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.429372289945337</v>
@@ -12994,7 +12730,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.438733764889716</v>
+        <v>1.471159209153313</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.527099563538974</v>
@@ -13083,7 +12819,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.432369553002905</v>
+        <v>1.467880291592466</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.39843115880754</v>
@@ -13172,7 +12908,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.43276005257516</v>
+        <v>1.469295640670133</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.368737080790057</v>
@@ -13261,7 +12997,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.474125812289539</v>
+        <v>1.498650393083875</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.199048696493222</v>
@@ -13350,7 +13086,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.441715259956795</v>
+        <v>1.474847038879272</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.455406620172738</v>
@@ -13439,7 +13175,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.445472380774337</v>
+        <v>1.476339172457216</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.404480390623871</v>
@@ -13528,7 +13264,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.439486107681042</v>
+        <v>1.468105962721896</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.534139230853682</v>
@@ -13617,7 +13353,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.447687830447391</v>
+        <v>1.476757170276545</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.445492983570296</v>
@@ -13706,7 +13442,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.451084297471065</v>
+        <v>1.482613735192192</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.534142028643467</v>
@@ -13795,7 +13531,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.433874218704297</v>
+        <v>1.465613568429055</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.496575344630519</v>
@@ -13884,7 +13620,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.433995230355212</v>
+        <v>1.462378375501406</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.559346918306143</v>
@@ -13973,7 +13709,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.427381476439708</v>
+        <v>1.457367824189613</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.388013047267424</v>
@@ -14062,7 +13798,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.412493352587118</v>
+        <v>1.439099926870065</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.30815577823291</v>
@@ -14151,7 +13887,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.421607623781543</v>
+        <v>1.448312092753343</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.313220903311513</v>
@@ -14240,7 +13976,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.451156593478069</v>
+        <v>1.473884722695602</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.236633281321236</v>
@@ -14329,7 +14065,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.452817910396496</v>
+        <v>1.472064295689322</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.268422013765672</v>
@@ -14418,7 +14154,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.471917099054414</v>
+        <v>1.485359828990601</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.232413397997361</v>
@@ -14507,7 +14243,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.484319371872614</v>
+        <v>1.501325548227564</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.454357052016463</v>
@@ -14596,7 +14332,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.498921086173962</v>
+        <v>1.516945960333124</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.624929601308009</v>
@@ -14685,7 +14421,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.522502233736983</v>
+        <v>1.538078910700679</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.174515804204202</v>
@@ -14774,7 +14510,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.55105288238893</v>
+        <v>1.563969637233224</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.435445549431366</v>
@@ -14863,7 +14599,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.574310899587819</v>
+        <v>1.59030958299258</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.364132224687693</v>
@@ -14952,7 +14688,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.577724208640285</v>
+        <v>1.595549446006107</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.463161074707916</v>
@@ -15041,7 +14777,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.574348789898732</v>
+        <v>1.585194642312855</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.412975441941018</v>
@@ -15130,7 +14866,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.577730554353296</v>
+        <v>1.590381906880386</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.532349628609693</v>
@@ -15219,7 +14955,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.609976546531742</v>
+        <v>1.619042751020799</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.385736649115522</v>
@@ -15308,7 +15044,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.580507062657964</v>
+        <v>1.591429076910888</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.613258544310306</v>
@@ -15397,7 +15133,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.571305737787098</v>
+        <v>1.58370018572026</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.43115240283222</v>
@@ -15486,7 +15222,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.596812311988501</v>
+        <v>1.610223500182905</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.409092854723503</v>
@@ -15575,7 +15311,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.579507035063414</v>
+        <v>1.59720978425522</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.633551218269871</v>
@@ -15664,7 +15400,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.581386489075831</v>
+        <v>1.595778973947354</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.525904047652795</v>
@@ -15753,7 +15489,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.560879882519771</v>
+        <v>1.581039992422693</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.506453185340458</v>
@@ -15842,7 +15578,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.554268140749862</v>
+        <v>1.574764176241964</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.480693864011932</v>
@@ -15931,7 +15667,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.585660733816435</v>
+        <v>1.605478191463548</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.53617347294227</v>
@@ -16020,7 +15756,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.555221156719038</v>
+        <v>1.579458400150494</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.48298457029854</v>
@@ -16109,7 +15845,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.558269637958561</v>
+        <v>1.586151232949996</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.410508280222543</v>
@@ -16198,7 +15934,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.500884388718541</v>
+        <v>1.529391129273238</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.456007753965851</v>
@@ -16287,7 +16023,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.458145227004851</v>
+        <v>1.483801092460035</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.426701042585201</v>
@@ -16376,7 +16112,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.47210576812695</v>
+        <v>1.497647575301892</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.473086426885329</v>
@@ -16465,7 +16201,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.433571029608372</v>
+        <v>1.458507908639752</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.476909615490999</v>
@@ -16554,7 +16290,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.4293541102581</v>
+        <v>1.455954829206896</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.628681810662223</v>
@@ -16643,7 +16379,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.425959865263912</v>
+        <v>1.455326834122718</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.566994014346665</v>
@@ -16732,7 +16468,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.422587927144365</v>
+        <v>1.45145322973651</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.481437551045616</v>
@@ -16821,7 +16557,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.428914336004442</v>
+        <v>1.456852539938593</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.334770926197917</v>
@@ -16910,7 +16646,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.438850248868169</v>
+        <v>1.46843661682033</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.538248193768772</v>
@@ -16999,7 +16735,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.422849327286604</v>
+        <v>1.453278719510555</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.47194894199762</v>
@@ -17088,7 +16824,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.426376669910976</v>
+        <v>1.456347143936356</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.412678936480734</v>
@@ -17177,7 +16913,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.432535255734929</v>
+        <v>1.460941145249412</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.532065523090314</v>
@@ -17266,7 +17002,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.440832153754912</v>
+        <v>1.468465463076664</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.38981627411256</v>
@@ -17355,7 +17091,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.459475288556759</v>
+        <v>1.483691535149537</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.384343442694305</v>
@@ -17444,7 +17180,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.474180609560676</v>
+        <v>1.497791174867676</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.428747265104847</v>
@@ -17533,7 +17269,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.506242971428516</v>
+        <v>1.531211631080835</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.415253591166295</v>
@@ -17622,7 +17358,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.540705215503836</v>
+        <v>1.56086651786346</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.499583710664352</v>
@@ -17711,7 +17447,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.536904972547473</v>
+        <v>1.558949985702945</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.468254063139415</v>
@@ -17800,7 +17536,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.570449107085746</v>
+        <v>1.589218755474991</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.681066957961882</v>
@@ -17889,7 +17625,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.555640750083704</v>
+        <v>1.57164657078897</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.329061517331386</v>
@@ -17978,7 +17714,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.590714036077897</v>
+        <v>1.59836784425571</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.563315122245867</v>
@@ -18067,7 +17803,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.604794717786708</v>
+        <v>1.602529993772891</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.562147678388843</v>
@@ -18156,7 +17892,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.58248432986808</v>
+        <v>1.587298744980287</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.586011630448752</v>
@@ -18245,7 +17981,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.57388242018228</v>
+        <v>1.577051979560778</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.547826127072923</v>
@@ -18334,7 +18070,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.588561185046791</v>
+        <v>1.586970104768963</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.603850404990518</v>
@@ -18423,7 +18159,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.584209870231864</v>
+        <v>1.588364681951698</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.566099991465315</v>
@@ -18512,7 +18248,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.58240021446021</v>
+        <v>1.58987674347811</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.673739105297885</v>
@@ -18601,7 +18337,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.554917767976875</v>
+        <v>1.56348370185747</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.618413989748487</v>
@@ -18690,7 +18426,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.55958363185464</v>
+        <v>1.568365539091339</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.591265533326819</v>
@@ -18779,7 +18515,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.555048563688658</v>
+        <v>1.5634050789832</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.608569887906798</v>
@@ -18868,7 +18604,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.551671010656928</v>
+        <v>1.559153131514367</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.636417807478594</v>
@@ -18957,7 +18693,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.567881799261277</v>
+        <v>1.577707959628625</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.585544866799057</v>
@@ -19243,7 +18979,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.422584183946258</v>
+        <v>1.451124582699113</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.148319791188121</v>
@@ -19332,7 +19068,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.44673846756095</v>
+        <v>1.46651327971384</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.001003186209015</v>
@@ -19421,7 +19157,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.406133892735607</v>
+        <v>1.425046826039688</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.166077223388525</v>
@@ -19510,7 +19246,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.419286234495262</v>
+        <v>1.431433648941853</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.143569692776364</v>
@@ -19599,7 +19335,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.466002024037183</v>
+        <v>1.482749669604805</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.834672352764958</v>
@@ -19688,7 +19424,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.476517917125887</v>
+        <v>1.481488433021494</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.120178653872056</v>
@@ -19777,7 +19513,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.471328019792736</v>
+        <v>1.476864788636593</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.206986714845132</v>
@@ -19866,7 +19602,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.468063910692485</v>
+        <v>1.465013618967616</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.15381994925276</v>
@@ -19955,7 +19691,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.446707458056633</v>
+        <v>1.449274550277865</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.182497532190594</v>
@@ -20044,7 +19780,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.449316672393269</v>
+        <v>1.456527746593028</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.134538456504809</v>
@@ -20133,7 +19869,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.472542180179697</v>
+        <v>1.473520440618777</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.124217041826134</v>
@@ -20222,7 +19958,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.46772372422867</v>
+        <v>1.468638236550409</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.063349440382797</v>
@@ -20311,7 +20047,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.465993536423662</v>
+        <v>1.473532329815636</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.091395326981609</v>
@@ -20400,7 +20136,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.521168936734</v>
+        <v>1.524273889470121</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.384188941111384</v>
@@ -20489,7 +20225,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.523911357293068</v>
+        <v>1.523907128312164</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.548686002162782</v>
@@ -20578,7 +20314,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.507540956146898</v>
+        <v>1.504518747898044</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.595357180732897</v>
@@ -20667,7 +20403,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.503749882299007</v>
+        <v>1.503362220310481</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.664025919139505</v>
@@ -20756,7 +20492,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.499946354884027</v>
+        <v>1.499619223890175</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.609338668167044</v>
@@ -20845,7 +20581,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.509412866414783</v>
+        <v>1.504449725981204</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.562476241520638</v>
@@ -20934,7 +20670,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.508068504341137</v>
+        <v>1.501158656454966</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.689145350932951</v>
@@ -21023,7 +20759,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.515512942999001</v>
+        <v>1.503559482560069</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.663429604594447</v>
@@ -21112,7 +20848,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.518190194274015</v>
+        <v>1.504992463737978</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.636190774904048</v>
@@ -21201,7 +20937,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.51751893960661</v>
+        <v>1.502300139555081</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.15011726930144</v>
@@ -21290,7 +21026,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.443037433174804</v>
+        <v>1.435393756651764</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.814657586647189</v>
@@ -21379,7 +21115,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.435326840442406</v>
+        <v>1.427012038763553</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.794444542893688</v>
@@ -21468,7 +21204,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.431160219414746</v>
+        <v>1.421023235634593</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.795606991167377</v>
@@ -21557,7 +21293,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.429619569676493</v>
+        <v>1.422975716369688</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.816439728474945</v>
@@ -21646,7 +21382,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.427175524395364</v>
+        <v>1.41669602548812</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.808744178652232</v>
@@ -21735,7 +21471,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.431197650929869</v>
+        <v>1.42088967018498</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.803681062763406</v>
@@ -21824,7 +21560,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.429538321913</v>
+        <v>1.422884353030294</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.798843081717237</v>
@@ -21913,7 +21649,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.444757887037851</v>
+        <v>1.436741133108771</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.797256564036075</v>
@@ -22002,7 +21738,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.438061082431072</v>
+        <v>1.430048920311016</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.788081655767631</v>
@@ -22091,7 +21827,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.421353224391394</v>
+        <v>1.415763604097205</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.79022552007614</v>
@@ -22180,7 +21916,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.41464395893425</v>
+        <v>1.40922278148755</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.788970326583432</v>
@@ -22269,7 +22005,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.398410926598375</v>
+        <v>1.399626768900012</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.795787780410772</v>
@@ -22358,7 +22094,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.393674763537567</v>
+        <v>1.397457744751818</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.794696524985639</v>
@@ -22447,7 +22183,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.395101568787935</v>
+        <v>1.400747007624637</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.792409409540737</v>
@@ -22536,7 +22272,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.414039983468203</v>
+        <v>1.419311818890707</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.784847683548886</v>
@@ -22625,7 +22361,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.478006377814881</v>
+        <v>1.477448032376545</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.463595812889468</v>
@@ -22714,7 +22450,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.499728378356075</v>
+        <v>1.484999560987876</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.403949346925947</v>
@@ -22803,7 +22539,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.499701715863585</v>
+        <v>1.48630760456094</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.402372573299543</v>
@@ -22892,7 +22628,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.503708394583769</v>
+        <v>1.489344043094227</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.536490311314277</v>
@@ -22981,7 +22717,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.508381938444691</v>
+        <v>1.496754623074492</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.40600037073057</v>
@@ -23070,7 +22806,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.503482034444188</v>
+        <v>1.490629287098247</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.564471340803337</v>
@@ -23159,7 +22895,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.493445997497036</v>
+        <v>1.472881259684651</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.464143793747292</v>
@@ -23248,7 +22984,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.482591875331454</v>
+        <v>1.463740657259989</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.491333894026277</v>
@@ -23337,7 +23073,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.488071445741447</v>
+        <v>1.466343543125882</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.324027112359625</v>
@@ -23426,7 +23162,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.52084741280469</v>
+        <v>1.496622567510835</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.356565341357916</v>
@@ -23515,7 +23251,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.557226804003884</v>
+        <v>1.528264842964662</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.345935047288289</v>
@@ -23604,7 +23340,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.562541119895887</v>
+        <v>1.533686389815455</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.90494815513922</v>
@@ -23693,7 +23429,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.573106247144042</v>
+        <v>1.546989933222962</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.886529476049583</v>
@@ -23782,7 +23518,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.570408041008834</v>
+        <v>1.541349197094953</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.729140060697566</v>
@@ -23871,7 +23607,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.583195194701714</v>
+        <v>1.54707981902407</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.858284496057734</v>
@@ -23960,7 +23696,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.580461793969594</v>
+        <v>1.542404926011876</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.925260757602925</v>
@@ -24049,7 +23785,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.576777277492842</v>
+        <v>1.5483698395247</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.979765780832506</v>
@@ -24138,7 +23874,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.576949026314762</v>
+        <v>1.550180952621158</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.582967395721874</v>
@@ -24227,7 +23963,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.554643426677595</v>
+        <v>1.531419514028843</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.782253900254542</v>
@@ -24316,7 +24052,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.552531879549361</v>
+        <v>1.528392735876889</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.708886187418635</v>
@@ -24405,7 +24141,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.53477825622413</v>
+        <v>1.513149117567779</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.715734914554421</v>
@@ -24494,7 +24230,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.535006042313848</v>
+        <v>1.520610504405062</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.852833702594073</v>
@@ -24583,7 +24319,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.546645710269207</v>
+        <v>1.531645648331035</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.003093751186388</v>
@@ -24672,7 +24408,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.540150193976264</v>
+        <v>1.526356502091998</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.913855119654663</v>
@@ -24761,7 +24497,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.5260626252417</v>
+        <v>1.51207160924268</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.74457513494937</v>
@@ -24850,7 +24586,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.506070382216692</v>
+        <v>1.490900069904396</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.898777520658647</v>
@@ -24939,7 +24675,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.505658960517983</v>
+        <v>1.487420713043238</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.948510268817293</v>
@@ -25028,7 +24764,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.496635364008409</v>
+        <v>1.477495062410483</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.58971317922512</v>
@@ -25117,7 +24853,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.520564272856913</v>
+        <v>1.498249616591242</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.663320702477188</v>
@@ -25206,7 +24942,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.520174009985806</v>
+        <v>1.505571168673839</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.703139065074526</v>
@@ -25295,7 +25031,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.531861697973217</v>
+        <v>1.51643749594795</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.725019468074299</v>
@@ -25384,7 +25120,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.539358998512418</v>
+        <v>1.528239938669032</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.910540067510691</v>
@@ -25473,7 +25209,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.559123879308794</v>
+        <v>1.546489976794099</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.842954756331769</v>
@@ -25562,7 +25298,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.535885948301726</v>
+        <v>1.539349684339671</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.963719031754703</v>
@@ -25651,7 +25387,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.496047136362599</v>
+        <v>1.506234134649101</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.991726872330204</v>
@@ -25740,7 +25476,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.500751061820462</v>
+        <v>1.514475326226778</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.01362274072358</v>
@@ -25829,7 +25565,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.501916278686316</v>
+        <v>1.517275714055727</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.050875596630013</v>
@@ -25918,7 +25654,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.516334149476263</v>
+        <v>1.538630311897656</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.121067023000992</v>
@@ -26007,7 +25743,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.5071313336621</v>
+        <v>1.528937956304193</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.162108167943425</v>
@@ -26096,7 +25832,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.518739854326399</v>
+        <v>1.543026159550028</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.182009085979622</v>
@@ -26185,7 +25921,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.523896096324579</v>
+        <v>1.553254561879943</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.261290832395531</v>
@@ -26274,7 +26010,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.504922009506452</v>
+        <v>1.537377795529832</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.210134317295973</v>
@@ -26363,7 +26099,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.493696250849079</v>
+        <v>1.530657611196138</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.300776255916521</v>
@@ -26452,7 +26188,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.483121251728235</v>
+        <v>1.521410796001777</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.293315350673754</v>
@@ -26541,7 +26277,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.488209298913819</v>
+        <v>1.526831512096369</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.340334851474594</v>
@@ -26630,7 +26366,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.469780450524047</v>
+        <v>1.508900888619151</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.348754134542353</v>
@@ -26719,7 +26455,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.438897711691342</v>
+        <v>1.479228589616046</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.349076620625402</v>
@@ -26808,7 +26544,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.432529426968578</v>
+        <v>1.469553571429391</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.527351627203401</v>
@@ -26897,7 +26633,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.445534880989489</v>
+        <v>1.484067791976674</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.248057884705188</v>
@@ -27183,7 +26919,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.653225096490581</v>
+        <v>1.670032760679439</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.385538195195997</v>
@@ -27272,7 +27008,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.673437450905459</v>
+        <v>1.67887462042835</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.040437581284253</v>
@@ -27361,7 +27097,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.705292937234424</v>
+        <v>1.708566515686769</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.966776028607065</v>
@@ -27450,7 +27186,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.706282812995656</v>
+        <v>1.710136140203329</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.863257138841835</v>
@@ -27539,7 +27275,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.70287507678504</v>
+        <v>1.707097099989961</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.978593500449255</v>
@@ -27628,7 +27364,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.693458402524875</v>
+        <v>1.689898889491676</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.876943377738826</v>
@@ -27717,7 +27453,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.610271452804024</v>
+        <v>1.614164855071469</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.181558891262288</v>
@@ -27806,7 +27542,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.602133240774817</v>
+        <v>1.608512462248397</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.153088291452318</v>
@@ -27895,7 +27631,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.589098785908011</v>
+        <v>1.595610854404634</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.168168432339893</v>
@@ -27984,7 +27720,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.546768424531643</v>
+        <v>1.553130456812058</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.032551326961688</v>
@@ -28073,7 +27809,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.544230582326294</v>
+        <v>1.548889212687585</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.161833298106406</v>
@@ -28162,7 +27898,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.547140878090648</v>
+        <v>1.548612288769706</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.165489877042268</v>
@@ -28251,7 +27987,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.545578589165239</v>
+        <v>1.547190847903889</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.166067141397458</v>
@@ -28340,7 +28076,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.556625266848353</v>
+        <v>1.560136257069608</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.15667043513355</v>
@@ -28429,7 +28165,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.550297454355403</v>
+        <v>1.550502919868749</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.166310525042021</v>
@@ -28518,7 +28254,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.552715696947966</v>
+        <v>1.55229449147056</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.156132261278151</v>
@@ -28607,7 +28343,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.553355809655625</v>
+        <v>1.548175382369779</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.135302229415008</v>
@@ -28696,7 +28432,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.549250441551562</v>
+        <v>1.542988736784147</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.148914422731927</v>
@@ -28785,7 +28521,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.555426866784093</v>
+        <v>1.546119874577708</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.163728619442256</v>
@@ -28874,7 +28610,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.559953660901259</v>
+        <v>1.548524950376955</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.157365506510715</v>
@@ -28963,7 +28699,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.564488199078994</v>
+        <v>1.55933435206578</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.134937753504459</v>
@@ -29052,7 +28788,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.634199876810679</v>
+        <v>1.627190393306999</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.21536398467926</v>
@@ -29141,7 +28877,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.638476931987401</v>
+        <v>1.627208839774852</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.241944556436903</v>
@@ -29230,7 +28966,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.596092368559013</v>
+        <v>1.591797973106758</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.304107922399731</v>
@@ -29319,7 +29055,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.651082983928898</v>
+        <v>1.637357653280571</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.485838738557167</v>
@@ -29408,7 +29144,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.64399436132448</v>
+        <v>1.633840014271525</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.559609570040524</v>
@@ -29497,7 +29233,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.643332853294896</v>
+        <v>1.637973088457051</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.559938948607957</v>
@@ -29586,7 +29322,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.649764983079991</v>
+        <v>1.643649938589418</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.592024787560546</v>
@@ -29675,7 +29411,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.646909469221374</v>
+        <v>1.642260483141033</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.577869948474324</v>
@@ -29764,7 +29500,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.653849043541895</v>
+        <v>1.648928170398199</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.587105295809034</v>
@@ -29853,7 +29589,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.657959228960294</v>
+        <v>1.656177020770693</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.51539007542311</v>
@@ -29942,7 +29678,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.654564590603965</v>
+        <v>1.656343909295707</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.53287989603049</v>
@@ -30031,7 +29767,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.647796878840917</v>
+        <v>1.6502747669046</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.542182955066264</v>
@@ -30120,7 +29856,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.645777598750301</v>
+        <v>1.650240650744955</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.590524985175711</v>
@@ -30209,7 +29945,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.638421749545035</v>
+        <v>1.647441742040788</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.507432034149547</v>
@@ -30298,7 +30034,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.644635539928749</v>
+        <v>1.646533101623048</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.509262498842927</v>
@@ -30387,7 +30123,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.646141875981304</v>
+        <v>1.650924461257129</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.522305671286674</v>
@@ -30476,7 +30212,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.655427217592423</v>
+        <v>1.657112173461248</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.540676319498762</v>
@@ -30565,7 +30301,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.696759290083206</v>
+        <v>1.6972253729717</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.821239027264503</v>
@@ -30654,7 +30390,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.702802577887957</v>
+        <v>1.708885066682235</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.699236056653586</v>
@@ -30743,7 +30479,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.705422429961193</v>
+        <v>1.70791007093425</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.108202011501134</v>
@@ -30832,7 +30568,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.719108263249908</v>
+        <v>1.721213150904235</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.914632755589719</v>
@@ -30921,7 +30657,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.710721330360635</v>
+        <v>1.70877156906231</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.090753848869301</v>
@@ -31010,7 +30746,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.709982631149975</v>
+        <v>1.708086765920552</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.081698435107413</v>
@@ -31099,7 +30835,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.712221819126212</v>
+        <v>1.711383754937646</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.001735998036172</v>
@@ -31188,7 +30924,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.714024791033545</v>
+        <v>1.715099244200132</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.101670816569244</v>
@@ -31277,7 +31013,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.711596596073768</v>
+        <v>1.708826623037251</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.147244911304754</v>
@@ -31366,7 +31102,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.721863127763082</v>
+        <v>1.721334610937792</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.042745243964152</v>
@@ -31455,7 +31191,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.734226776348946</v>
+        <v>1.727185875160716</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.851904893959577</v>
@@ -31544,7 +31280,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.730411499197209</v>
+        <v>1.725329573957682</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.049703144015376</v>
@@ -31633,7 +31369,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.721210239004523</v>
+        <v>1.718432592965103</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.855444271079772</v>
@@ -31722,7 +31458,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.717131204047924</v>
+        <v>1.713277757172935</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.049640724372455</v>
@@ -31811,7 +31547,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.723668394525843</v>
+        <v>1.715600912340758</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.060074952722861</v>
@@ -31900,7 +31636,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.743812278203963</v>
+        <v>1.733828278902292</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.348099444475348</v>
@@ -31989,7 +31725,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.750822777982853</v>
+        <v>1.739834759129085</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.534098995674412</v>
@@ -32078,7 +31814,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.742394559470298</v>
+        <v>1.734607403162818</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.222133891553392</v>
@@ -32167,7 +31903,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.69575307589446</v>
+        <v>1.700803231195347</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.687307610641962</v>
@@ -32256,7 +31992,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.691966719989489</v>
+        <v>1.701832643230764</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.63927932482602</v>
@@ -32345,7 +32081,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.685832123948211</v>
+        <v>1.693803057059982</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.659571968217434</v>
@@ -32434,7 +32170,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.681477545144186</v>
+        <v>1.68805695279316</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.723744153937582</v>
@@ -32523,7 +32259,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.674243435228353</v>
+        <v>1.681772583839597</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.706097486885236</v>
@@ -32612,7 +32348,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.675931564356461</v>
+        <v>1.687950096568585</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.693578098337716</v>
@@ -32701,7 +32437,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.67434174732531</v>
+        <v>1.686231287540614</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.713631884819707</v>
@@ -32790,7 +32526,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.680121760721456</v>
+        <v>1.692728903461058</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.610227687693801</v>
@@ -32879,7 +32615,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.673626302643617</v>
+        <v>1.687736969735172</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.659208460493447</v>
@@ -32968,7 +32704,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.683537822082496</v>
+        <v>1.699846817275748</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.540705287034069</v>
@@ -33057,7 +32793,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.659680787019638</v>
+        <v>1.678060722947988</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.575600065782325</v>
@@ -33146,7 +32882,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.57716019833</v>
+        <v>1.601914914558115</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.994616213214168</v>
@@ -33235,7 +32971,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.579894566170762</v>
+        <v>1.602928470710434</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.021781796144052</v>
@@ -33324,7 +33060,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.57913835237285</v>
+        <v>1.597555922269962</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.005188481328761</v>
@@ -33413,7 +33149,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.578993920078792</v>
+        <v>1.592879082180921</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.904733224728848</v>
@@ -33502,7 +33238,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.571972921509853</v>
+        <v>1.576212259254912</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.063754600541281</v>
@@ -33591,7 +33327,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.554181191437904</v>
+        <v>1.563114386349642</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.078606813593251</v>
@@ -33680,7 +33416,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.532917320509994</v>
+        <v>1.549036637921216</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.061329515642471</v>
@@ -33769,7 +33505,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.512465724490842</v>
+        <v>1.530953333239712</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.10424270670297</v>
@@ -33858,7 +33594,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.481913476643133</v>
+        <v>1.50009813254771</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.14048724227652</v>
@@ -33947,7 +33683,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.471084213831246</v>
+        <v>1.479636485394778</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.13754274482969</v>
@@ -34036,7 +33772,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.470189998875141</v>
+        <v>1.480017605372394</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.172563364049485</v>
@@ -34125,7 +33861,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.461293784716111</v>
+        <v>1.474311765423495</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.155041446027685</v>
@@ -34214,7 +33950,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.462780061317775</v>
+        <v>1.477407649971952</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.194372537219762</v>
@@ -34303,7 +34039,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.457101512002671</v>
+        <v>1.468117506779457</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.161626867139071</v>
@@ -34392,7 +34128,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.464499419706278</v>
+        <v>1.474050095304643</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.167822545113855</v>
@@ -34481,7 +34217,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.502745179549554</v>
+        <v>1.508989816831681</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.146729359410513</v>
@@ -34570,7 +34306,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.506936714197612</v>
+        <v>1.514978475182004</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.23912732398498</v>
@@ -34659,7 +34395,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.507545524600759</v>
+        <v>1.515084258179269</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.246235686020248</v>
@@ -34748,7 +34484,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.519955546266415</v>
+        <v>1.52625189875859</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.156740125428629</v>
@@ -34837,7 +34573,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.54953248076577</v>
+        <v>1.557528401486922</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.097311516147718</v>
@@ -35123,7 +34859,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.678296988638682</v>
+        <v>1.706461661007348</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.525238802249409</v>
@@ -35212,7 +34948,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.679905241133602</v>
+        <v>1.695290603302682</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.540740199632255</v>
@@ -35301,7 +35037,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.651880660697668</v>
+        <v>1.662815477176369</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.679125541538557</v>
@@ -35390,7 +35126,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.662986338364222</v>
+        <v>1.672337035798471</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.503109155639866</v>
@@ -35479,7 +35215,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.6609260373224</v>
+        <v>1.667224322047317</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.595915748561609</v>
@@ -35568,7 +35304,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.636897349854628</v>
+        <v>1.642085048563606</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.949085212642109</v>
@@ -35657,7 +35393,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.640686798110208</v>
+        <v>1.651791782587731</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.874834903641898</v>
@@ -35746,7 +35482,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.625537626798303</v>
+        <v>1.632025443880818</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.865278140709137</v>
@@ -35835,7 +35571,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.618131502943494</v>
+        <v>1.627990254638157</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.83689780250269</v>
@@ -35924,7 +35660,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.614365631774648</v>
+        <v>1.619742776948325</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.550080469545418</v>
@@ -36013,7 +35749,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.601511199583908</v>
+        <v>1.611346208188697</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.83596399481511</v>
@@ -36102,7 +35838,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.610299853898836</v>
+        <v>1.620657461692613</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.852878251513753</v>
@@ -36191,7 +35927,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.615625825296728</v>
+        <v>1.631576504979829</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.682818674923954</v>
@@ -36280,7 +36016,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.657063751390982</v>
+        <v>1.667247645140053</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.164547391877828</v>
@@ -36369,7 +36105,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.660875873630132</v>
+        <v>1.667423719660196</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.389224671290844</v>
@@ -36458,7 +36194,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.667096963741781</v>
+        <v>1.672101811981454</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.056023367877165</v>
@@ -36547,7 +36283,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.679393344173326</v>
+        <v>1.680354774750127</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.20526587766132</v>
@@ -36636,7 +36372,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.665014469967959</v>
+        <v>1.661477829851994</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.445896824781968</v>
@@ -36725,7 +36461,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.654370662064436</v>
+        <v>1.651568330158967</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.106717114477108</v>
@@ -36814,7 +36550,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.669745829380994</v>
+        <v>1.661698782827409</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.185590673824941</v>
@@ -36903,7 +36639,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.671987832692462</v>
+        <v>1.663268560434705</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.335284222900027</v>
@@ -36992,7 +36728,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.67110086824278</v>
+        <v>1.662232502911615</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.043674051561716</v>
@@ -37081,7 +36817,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.685280479623544</v>
+        <v>1.66961640424373</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.85716647901377</v>
@@ -37170,7 +36906,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.668312281060463</v>
+        <v>1.660241085031682</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.231273894155371</v>
@@ -37259,7 +36995,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.665352271919033</v>
+        <v>1.652943354967034</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.284636320838953</v>
@@ -37348,7 +37084,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.666569203338691</v>
+        <v>1.649953817614686</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.243997652880942</v>
@@ -37437,7 +37173,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.682673002085018</v>
+        <v>1.660335619830621</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.224309298813679</v>
@@ -37526,7 +37262,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.677336698987302</v>
+        <v>1.652415348015003</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.218867912833005</v>
@@ -37615,7 +37351,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.669446704099858</v>
+        <v>1.643842915798994</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.221314568733145</v>
@@ -37704,7 +37440,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.6685341704544</v>
+        <v>1.64357296386061</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.232310500441187</v>
@@ -37793,7 +37529,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.673854411977534</v>
+        <v>1.647071939372253</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.249295410996804</v>
@@ -37882,7 +37618,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.660775220714332</v>
+        <v>1.637463388617755</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.209459005916185</v>
@@ -37971,7 +37707,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.664053090215829</v>
+        <v>1.644568459394324</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.200082121020334</v>
@@ -38060,7 +37796,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.677340331587484</v>
+        <v>1.655858068112416</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.141829449267493</v>
@@ -38149,7 +37885,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.683839778406618</v>
+        <v>1.663483871642894</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.141139924500846</v>
@@ -38238,7 +37974,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.69178517273836</v>
+        <v>1.671331361987709</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.15703720638041</v>
@@ -38327,7 +38063,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.696807535410934</v>
+        <v>1.676412190483213</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.218521607436681</v>
@@ -38416,7 +38152,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.713648824465204</v>
+        <v>1.691267444781286</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.169964759008537</v>
@@ -38505,7 +38241,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.729081155240778</v>
+        <v>1.697515171660962</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.073570951473018</v>
@@ -38594,7 +38330,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.737952122316092</v>
+        <v>1.709938739205167</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.30803247199206</v>
@@ -38683,7 +38419,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.74574443439601</v>
+        <v>1.723574446232946</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.986396796301567</v>
@@ -38772,7 +38508,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.741589864367511</v>
+        <v>1.723385525788122</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.34844409907808</v>
@@ -38861,7 +38597,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.730981532084591</v>
+        <v>1.716241599493026</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.925128713221675</v>
@@ -38950,7 +38686,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.733542844388086</v>
+        <v>1.722345910383247</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.89063214203493</v>
@@ -39039,7 +38775,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.738557400408338</v>
+        <v>1.730154799084707</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.893130758507333</v>
@@ -39128,7 +38864,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.723977582057945</v>
+        <v>1.719813969458418</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.929316920072169</v>
@@ -39217,7 +38953,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.729615849838015</v>
+        <v>1.726429067908374</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.7374678552774</v>
@@ -39306,7 +39042,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.74415494922246</v>
+        <v>1.739797201977552</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.830823725228641</v>
@@ -39395,7 +39131,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.73664567172271</v>
+        <v>1.732586618359391</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.979521388162488</v>
@@ -39484,7 +39220,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.744153965342056</v>
+        <v>1.735665949880798</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.846924488303606</v>
@@ -39573,7 +39309,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.748199294231684</v>
+        <v>1.738070547587192</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.051012372208288</v>
@@ -39662,7 +39398,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.752035636751196</v>
+        <v>1.739684720181044</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.899563028444385</v>
@@ -39751,7 +39487,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.766884223042382</v>
+        <v>1.752584531525105</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.729092662883227</v>
@@ -39840,7 +39576,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.748646487053747</v>
+        <v>1.739996409014112</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.178478905056373</v>
@@ -39929,7 +39665,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.750184782301114</v>
+        <v>1.740852292756738</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.928078411303983</v>
@@ -40018,7 +39754,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.722274088565616</v>
+        <v>1.714133183597703</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.913830250414617</v>
@@ -40107,7 +39843,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.698167154797172</v>
+        <v>1.694886849908851</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.821096156978342</v>
@@ -40196,7 +39932,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.718312725684692</v>
+        <v>1.713304737130747</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.950722057238909</v>
@@ -40285,7 +40021,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.687853025376733</v>
+        <v>1.682344484921636</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.973543528020812</v>
@@ -40374,7 +40110,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.679435365192429</v>
+        <v>1.673246993096678</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.816972048682711</v>
@@ -40463,7 +40199,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.681869374351663</v>
+        <v>1.676486711776064</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.107234449064263</v>
@@ -40552,7 +40288,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.678857897645072</v>
+        <v>1.673128758572967</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.145433265227062</v>
@@ -40641,7 +40377,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.672315985166777</v>
+        <v>1.670030063369315</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.764903385019477</v>
@@ -40730,7 +40466,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.677904347183558</v>
+        <v>1.675944927360109</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.8123709289089</v>
@@ -40819,7 +40555,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.665340476449765</v>
+        <v>1.660584217417133</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.065968195636261</v>
@@ -40908,7 +40644,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.655438703537095</v>
+        <v>1.654419197372187</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.787154318888406</v>
@@ -40997,7 +40733,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.656792191244386</v>
+        <v>1.653373864105234</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.915245226970774</v>
@@ -41086,7 +40822,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.663189388809881</v>
+        <v>1.656611791520152</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.207924039934459</v>
@@ -41175,7 +40911,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.675797547134595</v>
+        <v>1.663833392374809</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.971748566144622</v>
@@ -41264,7 +41000,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.676295976544663</v>
+        <v>1.659621871228</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.856593361360814</v>
@@ -41353,7 +41089,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.69557677282425</v>
+        <v>1.6749452904458</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.021493545316759</v>
@@ -41442,7 +41178,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.728277356110891</v>
+        <v>1.707286059750608</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.420943303004462</v>
@@ -41531,7 +41267,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.724478709875506</v>
+        <v>1.706674643611434</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.376954499983917</v>
@@ -41620,7 +41356,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.73541132460225</v>
+        <v>1.716681382992835</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.44747744347433</v>
@@ -41709,7 +41445,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.734568530493217</v>
+        <v>1.714034747642786</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.403144538882822</v>
@@ -41798,7 +41534,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.761600740651958</v>
+        <v>1.742864214719166</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.538459280824377</v>
@@ -41887,7 +41623,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.776654362187574</v>
+        <v>1.751705959316662</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.595094107632131</v>
@@ -41976,7 +41712,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.776054503192724</v>
+        <v>1.754866114143927</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.629611042189176</v>
@@ -42065,7 +41801,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.775837914473346</v>
+        <v>1.754164118354601</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.669431938625059</v>
@@ -42154,7 +41890,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.779774292379485</v>
+        <v>1.760251871735967</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.662441672939701</v>
@@ -42243,7 +41979,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.783449798455447</v>
+        <v>1.763979591281799</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.684012454904068</v>
@@ -42332,7 +42068,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.784600461327368</v>
+        <v>1.763913645826715</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.689254929717015</v>
@@ -42421,7 +42157,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.777455141601656</v>
+        <v>1.757642836990357</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.693746093381748</v>
@@ -42510,7 +42246,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.783273246272139</v>
+        <v>1.76618540118992</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.752801165611954</v>
@@ -42599,7 +42335,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.776607051205573</v>
+        <v>1.764389097499172</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.79975264914334</v>
@@ -42688,7 +42424,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.774188519315206</v>
+        <v>1.763387035300992</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.723608839358999</v>
@@ -42777,7 +42513,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.780519978663042</v>
+        <v>1.765854142071684</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.587637943634628</v>
@@ -43063,7 +42799,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.598647918210738</v>
+        <v>1.622357724732018</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.414921887892091</v>
@@ -43152,7 +42888,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.59989010428771</v>
+        <v>1.619676318882445</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.711223305045692</v>
@@ -43241,7 +42977,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.572289424031649</v>
+        <v>1.585019139300206</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.481576707263279</v>
@@ -43330,7 +43066,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.579848311880821</v>
+        <v>1.585758723981234</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.237726341371257</v>
@@ -43419,7 +43155,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.58208308686029</v>
+        <v>1.583645668952797</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.519591425771355</v>
@@ -43508,7 +43244,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.549976312868746</v>
+        <v>1.540951152218551</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.483831251625689</v>
@@ -43597,7 +43333,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.543750468816311</v>
+        <v>1.534316516778421</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.343746308821777</v>
@@ -43686,7 +43422,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.534260051929651</v>
+        <v>1.522281453214624</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.48545821728391</v>
@@ -43775,7 +43511,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.502461796193988</v>
+        <v>1.493367566969484</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.587885759738751</v>
@@ -43864,7 +43600,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.434393105760897</v>
+        <v>1.425432450645251</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.145976566931009</v>
@@ -43953,7 +43689,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.427289646076422</v>
+        <v>1.413592884823658</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.403372534648803</v>
@@ -44042,7 +43778,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.428880016850497</v>
+        <v>1.409823581081111</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.472054613461691</v>
@@ -44131,7 +43867,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.422278241593075</v>
+        <v>1.409218451760933</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.40289832486924</v>
@@ -44220,7 +43956,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.439393082004274</v>
+        <v>1.423677858544734</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.47227012603286</v>
@@ -44309,7 +44045,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.436296923930166</v>
+        <v>1.418699372520045</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.443179021087279</v>
@@ -44398,7 +44134,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.429265770704749</v>
+        <v>1.4102389431918</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.410740600951228</v>
@@ -44487,7 +44223,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.426261991782689</v>
+        <v>1.410268244924293</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.530113197061832</v>
@@ -44576,7 +44312,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.422311689425677</v>
+        <v>1.404051537761385</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.399513729920292</v>
@@ -44665,7 +44401,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.419071904134118</v>
+        <v>1.402790608458488</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.536280810709351</v>
@@ -44754,7 +44490,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.42451438067913</v>
+        <v>1.40651240991115</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.422512090777207</v>
@@ -44843,7 +44579,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.425618915749285</v>
+        <v>1.405907014457317</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.424257059475591</v>
@@ -44932,7 +44668,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.425668278682805</v>
+        <v>1.402973542685773</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.417928265754486</v>
@@ -45021,7 +44757,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.42008796917187</v>
+        <v>1.397282267059829</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.528882728361864</v>
@@ -45110,7 +44846,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.434063348256487</v>
+        <v>1.413168771480693</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.065361110220398</v>
@@ -45199,7 +44935,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.468879133271369</v>
+        <v>1.438266406043566</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.156747007868022</v>
@@ -45288,7 +45024,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.470209549742542</v>
+        <v>1.437631183352086</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.192515354701469</v>
@@ -45377,7 +45113,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.467593663393465</v>
+        <v>1.442754697422813</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.26845545242085</v>
@@ -45466,7 +45202,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.464972656387444</v>
+        <v>1.439609432565669</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.16577012986964</v>
@@ -45555,7 +45291,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.466096064180537</v>
+        <v>1.438485752568746</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.19369544413659</v>
@@ -45644,7 +45380,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.462816298780626</v>
+        <v>1.437848988812366</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.218853374176841</v>
@@ -45733,7 +45469,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.479449103312241</v>
+        <v>1.454545248098841</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.252515386402793</v>
@@ -45822,7 +45558,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.478065875653291</v>
+        <v>1.454125243834122</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.208224539965748</v>
@@ -45911,7 +45647,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.470152762046965</v>
+        <v>1.448880869429845</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.24700229056628</v>
@@ -46000,7 +45736,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.467764768517426</v>
+        <v>1.447919992103325</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.271534200837356</v>
@@ -46089,7 +45825,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.451248153867203</v>
+        <v>1.432540264781881</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.221990496275124</v>
@@ -46178,7 +45914,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.451690109956397</v>
+        <v>1.436469183138041</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.242417244005652</v>
@@ -46267,7 +46003,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.453759758526407</v>
+        <v>1.438752722431812</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.281394105258298</v>
@@ -46356,7 +46092,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.473048307932394</v>
+        <v>1.455479786549238</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.243398945560998</v>
@@ -46445,7 +46181,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.485954418140009</v>
+        <v>1.45794578424746</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.602361530091404</v>
@@ -46534,7 +46270,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.49519593076587</v>
+        <v>1.472457594489499</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.750800696100461</v>
@@ -46623,7 +46359,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.493545310955628</v>
+        <v>1.473099054890262</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.749770040545507</v>
@@ -46712,7 +46448,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.497612852465229</v>
+        <v>1.472762553193529</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.716363461881494</v>
@@ -46801,7 +46537,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.493101244888381</v>
+        <v>1.473203099431893</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.594411043047766</v>
@@ -46890,7 +46626,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.480604393957386</v>
+        <v>1.459636964571017</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.645101059332966</v>
@@ -46979,7 +46715,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.479179218885746</v>
+        <v>1.457468656571373</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.763505036165992</v>
@@ -47068,7 +46804,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.465445749351619</v>
+        <v>1.444474089972598</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.614056645605583</v>
@@ -47157,7 +46893,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.46161614452523</v>
+        <v>1.437846600579864</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.543362781716141</v>
@@ -47246,7 +46982,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.473992809942883</v>
+        <v>1.448249430991877</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.649352306841528</v>
@@ -47335,7 +47071,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.495246693064082</v>
+        <v>1.469136397735212</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.463836969588741</v>
@@ -47424,7 +47160,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.512736505709642</v>
+        <v>1.485318425169626</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.130804312001395</v>
@@ -47513,7 +47249,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.51464364263917</v>
+        <v>1.495614086663984</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.996239673389431</v>
@@ -47602,7 +47338,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.50621180141879</v>
+        <v>1.485585298435282</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.106147334717296</v>
@@ -47691,7 +47427,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.511800191403811</v>
+        <v>1.49115692519622</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.016349247177727</v>
@@ -47780,7 +47516,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.515420501791071</v>
+        <v>1.493568804040515</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.998009649550934</v>
@@ -47869,7 +47605,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.507058061764399</v>
+        <v>1.490303131066561</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.109304287339166</v>
@@ -47958,7 +47694,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.500443269949175</v>
+        <v>1.48325911039409</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.681689051770237</v>
@@ -48047,7 +47783,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.488219402879823</v>
+        <v>1.474589424332468</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.771881696436345</v>
@@ -48136,7 +47872,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.487007594478713</v>
+        <v>1.466982347215193</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.899164747251032</v>
@@ -48225,7 +47961,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.484958113766687</v>
+        <v>1.463968422339672</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.631993323844242</v>
@@ -48314,7 +48050,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.482424557399854</v>
+        <v>1.465193856673259</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.979530844614218</v>
@@ -48403,7 +48139,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.487684931953835</v>
+        <v>1.469237615652278</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.942219383095165</v>
@@ -48492,7 +48228,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.483422703587767</v>
+        <v>1.460649243613678</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.739360947184142</v>
@@ -48581,7 +48317,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.4832054913889</v>
+        <v>1.462983657578877</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.93151152288606</v>
@@ -48670,7 +48406,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.465424060947893</v>
+        <v>1.442252758113783</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.865453432410391</v>
@@ -48759,7 +48495,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.461595241172482</v>
+        <v>1.44199478841545</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.878444011419749</v>
@@ -48848,7 +48584,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.448139810859186</v>
+        <v>1.424874685591579</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.704888493043581</v>
@@ -48937,7 +48673,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.459255918270573</v>
+        <v>1.438714896748408</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.666112587002846</v>
@@ -49026,7 +48762,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.466749950426143</v>
+        <v>1.453908722692518</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.655528164494627</v>
@@ -49115,7 +48851,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.472078372725124</v>
+        <v>1.456729412843723</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.802399941578533</v>
@@ -49204,7 +48940,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.479338199770646</v>
+        <v>1.466811412010162</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.581890525966688</v>
@@ -49293,7 +49029,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.495647330446196</v>
+        <v>1.482022397574865</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.590775162085296</v>
@@ -49382,7 +49118,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.526169543427591</v>
+        <v>1.513789732687054</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.201057763693786</v>
@@ -49471,7 +49207,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.489782509761748</v>
+        <v>1.491984978026317</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.241157338246328</v>
@@ -49560,7 +49296,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.4833672048896</v>
+        <v>1.487476350136109</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.186600776380093</v>
@@ -49649,7 +49385,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.483389431355244</v>
+        <v>1.485979162201737</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.302130532171877</v>
@@ -49738,7 +49474,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.501623587655465</v>
+        <v>1.512291144064212</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.389015012940789</v>
@@ -49827,7 +49563,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.50652760972879</v>
+        <v>1.517387999284551</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.426172971243286</v>
@@ -49916,7 +49652,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.51200617224507</v>
+        <v>1.525114975568317</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.467490127029922</v>
@@ -50005,7 +49741,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.525622969455508</v>
+        <v>1.541098060875643</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.486378935463849</v>
@@ -50094,7 +49830,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.514253536695803</v>
+        <v>1.533975986989531</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.403869106417094</v>
@@ -50183,7 +49919,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.52106290347229</v>
+        <v>1.544657073464097</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.504058570141952</v>
@@ -50272,7 +50008,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.519920652299844</v>
+        <v>1.544631633454468</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.553848515823281</v>
@@ -50361,7 +50097,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.512702580683643</v>
+        <v>1.533656024078969</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.559253827698907</v>
@@ -50450,7 +50186,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.509141548681036</v>
+        <v>1.533232865646036</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.538492170468153</v>
@@ -50539,7 +50275,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.502421042194251</v>
+        <v>1.525574426285528</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.577037143335529</v>
@@ -50628,7 +50364,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.502514912297756</v>
+        <v>1.524347837603719</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.434304647474085</v>
@@ -50717,7 +50453,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.497349625306167</v>
+        <v>1.519101423701659</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.462224669483809</v>
@@ -51003,7 +50739,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.445987816543128</v>
+        <v>1.474766067050005</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.472233332357459</v>
@@ -51092,7 +50828,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.472779910933189</v>
+        <v>1.500744244172891</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.602193002641435</v>
@@ -51181,7 +50917,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.496010478941676</v>
+        <v>1.520971086098358</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.326221357122908</v>
@@ -51270,7 +51006,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.538807668791516</v>
+        <v>1.562610128036208</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.215230809223847</v>
@@ -51359,7 +51095,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.543501115689444</v>
+        <v>1.561581197622105</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.471787735295394</v>
@@ -51448,7 +51184,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.545058876740957</v>
+        <v>1.566688791635943</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.095445235202725</v>
@@ -51537,7 +51273,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.56934507685005</v>
+        <v>1.590120602016249</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.602796562266854</v>
@@ -51626,7 +51362,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.552045734284855</v>
+        <v>1.573576641456484</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.806411313459033</v>
@@ -51715,7 +51451,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.546664329879178</v>
+        <v>1.573770300884064</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.767664208565102</v>
@@ -51804,7 +51540,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.544502375992603</v>
+        <v>1.565738430639597</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.483286826659984</v>
@@ -51893,7 +51629,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.523849575032598</v>
+        <v>1.552728691731091</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.571474104626053</v>
@@ -51982,7 +51718,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.553479974121106</v>
+        <v>1.581805279562019</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.521151604583889</v>
@@ -52071,7 +51807,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.561639478364789</v>
+        <v>1.596702369432607</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.623430329602598</v>
@@ -52160,7 +51896,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.562257069714559</v>
+        <v>1.6015183957819</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.728638949448587</v>
@@ -52249,7 +51985,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.568200314889301</v>
+        <v>1.604256038183457</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.640237950691627</v>
@@ -52338,7 +52074,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.583176762424032</v>
+        <v>1.618345573454346</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.530734951317319</v>
@@ -52427,7 +52163,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.603425829910761</v>
+        <v>1.637877756497524</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.645700941385439</v>
@@ -52516,7 +52252,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.568993360223253</v>
+        <v>1.601109843693007</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.549708776870965</v>
@@ -52605,7 +52341,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.550882245466653</v>
+        <v>1.584518159677893</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.563490252288195</v>
@@ -52694,7 +52430,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.581578225187832</v>
+        <v>1.618292435639347</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.793433910704466</v>
@@ -52783,7 +52519,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.583428991339112</v>
+        <v>1.621709292916343</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.538873290135656</v>
@@ -52872,7 +52608,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.581637045490792</v>
+        <v>1.618852689893388</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.475514346008118</v>
@@ -52961,7 +52697,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.610773143678614</v>
+        <v>1.634635478353126</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.246008808001496</v>
@@ -53050,7 +52786,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.584335885365314</v>
+        <v>1.613175111274422</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.717385262855559</v>
@@ -53139,7 +52875,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.58871579748083</v>
+        <v>1.614762657231456</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.756038465689659</v>
@@ -53228,7 +52964,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.581458456313254</v>
+        <v>1.607223584502962</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.775518273738143</v>
@@ -53317,7 +53053,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.592880995897701</v>
+        <v>1.615579162119822</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.780984027825374</v>
@@ -53406,7 +53142,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.599702304552927</v>
+        <v>1.621044021321039</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.803579338849532</v>
@@ -53495,7 +53231,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.582483268646336</v>
+        <v>1.603014429815283</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.713090180375295</v>
@@ -53584,7 +53320,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.586529323325045</v>
+        <v>1.608613050581119</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.862145054694644</v>
@@ -53673,7 +53409,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.582312347825245</v>
+        <v>1.605071989989222</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.822643417614648</v>
@@ -53762,7 +53498,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.572234744600352</v>
+        <v>1.595595371080909</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.582240483721486</v>
@@ -53851,7 +53587,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.583817168761762</v>
+        <v>1.605909347325561</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.623659949119767</v>
@@ -53940,7 +53676,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.610526100750453</v>
+        <v>1.623422505250625</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.558515008141241</v>
@@ -54029,7 +53765,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.610991669332905</v>
+        <v>1.623460730759052</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.657704398049348</v>
@@ -54118,7 +53854,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.618309731189265</v>
+        <v>1.624060514544039</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.474601443357893</v>
@@ -54207,7 +53943,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.640827363116406</v>
+        <v>1.650190958550618</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.820075528032965</v>
@@ -54296,7 +54032,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.667398576512336</v>
+        <v>1.673231407268112</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.716948187996691</v>
@@ -54385,7 +54121,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.699295511668983</v>
+        <v>1.706798567205357</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.564350940678168</v>
@@ -54474,7 +54210,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.731352583657007</v>
+        <v>1.742552000367442</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.811471874176562</v>
@@ -54563,7 +54299,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.751816183207229</v>
+        <v>1.765047736822721</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.656257740408976</v>
@@ -54652,7 +54388,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.750850900556385</v>
+        <v>1.765042761586159</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.824826172471929</v>
@@ -54741,7 +54477,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.737295614589998</v>
+        <v>1.746321943977239</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.680086048706592</v>
@@ -54830,7 +54566,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.749965707675959</v>
+        <v>1.762977023764515</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.806043103666091</v>
@@ -54919,7 +54655,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.771795212723752</v>
+        <v>1.784296568272393</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.531520829826778</v>
@@ -55008,7 +54744,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.747737960690765</v>
+        <v>1.763257560387696</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.754025516473797</v>
@@ -55097,7 +54833,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.74693794522005</v>
+        <v>1.762150242378316</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.689509042636181</v>
@@ -55186,7 +54922,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.774371931476573</v>
+        <v>1.788788276105391</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.630148433146706</v>
@@ -55275,7 +55011,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.754237321081546</v>
+        <v>1.773884517265929</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.591677751572949</v>
@@ -55364,7 +55100,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.761684012601416</v>
+        <v>1.782235797455809</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.932138982718158</v>
@@ -55453,7 +55189,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.746463725663389</v>
+        <v>1.76593079887731</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.823750874805427</v>
@@ -55542,7 +55278,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.732046430363917</v>
+        <v>1.751532637723768</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.73099486484518</v>
@@ -55631,7 +55367,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.763936100747668</v>
+        <v>1.776302842517951</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.671986881264801</v>
@@ -55720,7 +55456,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.736588844938633</v>
+        <v>1.756763987298345</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.641004056778636</v>
@@ -55809,7 +55545,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.730360776032178</v>
+        <v>1.75020621364606</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.768140335133053</v>
@@ -55898,7 +55634,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.674440168888442</v>
+        <v>1.69874171151694</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.877967896520958</v>
@@ -55987,7 +55723,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.63294651236911</v>
+        <v>1.661941249037504</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.534651040443304</v>
@@ -56076,7 +55812,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.646910433734922</v>
+        <v>1.674437188280396</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.792508376253631</v>
@@ -56165,7 +55901,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.592513572524166</v>
+        <v>1.620549346970767</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.768588782752818</v>
@@ -56254,7 +55990,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.588535421661773</v>
+        <v>1.609714654993491</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.82182898002545</v>
@@ -56343,7 +56079,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.585462585662047</v>
+        <v>1.610136553070687</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.600792383372396</v>
@@ -56432,7 +56168,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.57734641574596</v>
+        <v>1.600070336629674</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.677533464643153</v>
@@ -56521,7 +56257,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.576099466800266</v>
+        <v>1.601220641875778</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.560081873802246</v>
@@ -56610,7 +56346,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.59043851219386</v>
+        <v>1.61535479716936</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.745647304282535</v>
@@ -56699,7 +56435,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.565221705264207</v>
+        <v>1.591271936587542</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.755002038540323</v>
@@ -56788,7 +56524,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.569653802129385</v>
+        <v>1.594396596451044</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.72264221221741</v>
@@ -56877,7 +56613,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.573119364696823</v>
+        <v>1.59982545560966</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.713477344816863</v>
@@ -56966,7 +56702,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.574607407774561</v>
+        <v>1.599401040548906</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.565433224514003</v>
@@ -57055,7 +56791,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.587735077740401</v>
+        <v>1.60717775426646</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.606807008866022</v>
@@ -57144,7 +56880,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.597783400940344</v>
+        <v>1.610339744190355</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.723797883900149</v>
@@ -57233,7 +56969,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.632408167272357</v>
+        <v>1.63720891358456</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.58162116617057</v>
@@ -57322,7 +57058,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.637886371142104</v>
+        <v>1.638997125728132</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.601332774401065</v>
@@ -57411,7 +57147,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.624052207341999</v>
+        <v>1.626060060998907</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.50327266397096</v>
@@ -57500,7 +57236,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.643535621402488</v>
+        <v>1.643849716265241</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.679855769830815</v>
@@ -57589,7 +57325,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.619554368840914</v>
+        <v>1.621379878983238</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.447152249995679</v>
@@ -57678,7 +57414,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.637256065415207</v>
+        <v>1.637045382643106</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.707382609120184</v>
@@ -57767,7 +57503,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.645835918705702</v>
+        <v>1.633980089502809</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.743695994905308</v>
@@ -57856,7 +57592,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.619888459878304</v>
+        <v>1.618099652547482</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.668290632685744</v>
@@ -57945,7 +57681,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.593937147009722</v>
+        <v>1.59376381672492</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.623552377662107</v>
@@ -58034,7 +57770,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.608314899536828</v>
+        <v>1.601591525917437</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.720974299892669</v>
@@ -58123,7 +57859,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.59620464963957</v>
+        <v>1.595649172396001</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.678312013986999</v>
@@ -58212,7 +57948,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.590420110544785</v>
+        <v>1.587879656403783</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.725009891464213</v>
@@ -58301,7 +58037,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.57030088260929</v>
+        <v>1.569522612670648</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.703129242722019</v>
@@ -58390,7 +58126,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.569575076332331</v>
+        <v>1.56937970648488</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.826987386376373</v>
@@ -58479,7 +58215,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.556926487603135</v>
+        <v>1.562587233495733</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.733976442074427</v>
@@ -58568,7 +58304,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.554590067678233</v>
+        <v>1.561484895539573</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.777141900443501</v>
@@ -58657,7 +58393,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.585551195145624</v>
+        <v>1.5896270619436</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.766505218152383</v>
